--- a/N_Uptake_Calculations/SIF_NRate_NUptake_Base_Dataframe.xlsx
+++ b/N_Uptake_Calculations/SIF_NRate_NUptake_Base_Dataframe.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academics\UC Davis\School Work\Linquist Lab\Data\R stats\Agronomic paper\N uptake\N uptake calculations from SIF data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Documents\GitHub\Rice-Agroecology-Lab\N_Uptake_Calculations\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,12 +29,6 @@
     <t>SIF_N_µg</t>
   </si>
   <si>
-    <t>Sample_Weight_mg</t>
-  </si>
-  <si>
-    <t>Dry_Sample_Weight_g</t>
-  </si>
-  <si>
     <t>Stage</t>
   </si>
   <si>
@@ -53,9 +47,6 @@
     <t>Area_harvested_m2</t>
   </si>
   <si>
-    <t>Microbalance_moisture_percent</t>
-  </si>
-  <si>
     <t>Treatment</t>
   </si>
   <si>
@@ -2003,10 +1994,19 @@
     <t>5.335</t>
   </si>
   <si>
-    <t>Dry_sample_moisture_percent</t>
-  </si>
-  <si>
     <t>Maturity_Grain</t>
+  </si>
+  <si>
+    <t>Microbalance_ambient_moisture_percent</t>
+  </si>
+  <si>
+    <t>Oven_dry_sample_moisture_percent</t>
+  </si>
+  <si>
+    <t>Oven_dry_Sample_Weight_g</t>
+  </si>
+  <si>
+    <t>Microbalance_sample_Weight_mg</t>
   </si>
 </sst>
 </file>
@@ -2327,19 +2327,19 @@
   <dimension ref="A1:L337"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N2" sqref="N2:Q37"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.42578125" customWidth="1"/>
+    <col min="6" max="6" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" customWidth="1"/>
     <col min="10" max="10" width="5.7109375" customWidth="1"/>
@@ -2347,51 +2347,51 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>660</v>
       </c>
       <c r="D1" t="s">
+        <v>659</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>658</v>
+      </c>
+      <c r="G1" t="s">
+        <v>657</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>659</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" t="s">
-        <v>5</v>
-      </c>
       <c r="L1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>85.75105346053293</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D2">
         <v>5264105.1892205738</v>
@@ -2406,16 +2406,16 @@
         <v>9.76</v>
       </c>
       <c r="H2" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="I2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J2">
         <v>7</v>
       </c>
       <c r="K2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L2">
         <v>2023</v>
@@ -2423,13 +2423,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>56.227081633467712</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D3">
         <v>9981691.4085916448</v>
@@ -2444,16 +2444,16 @@
         <v>9.76</v>
       </c>
       <c r="H3" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="I3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J3">
         <v>7</v>
       </c>
       <c r="K3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L3">
         <v>2023</v>
@@ -2461,13 +2461,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>65.299939474530575</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D4">
         <v>7902092.044724863</v>
@@ -2482,16 +2482,16 @@
         <v>9.76</v>
       </c>
       <c r="H4" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="I4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J4">
         <v>7</v>
       </c>
       <c r="K4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L4">
         <v>2023</v>
@@ -2499,13 +2499,13 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>41.799750312433318</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D5">
         <v>8450992.2784999833</v>
@@ -2520,16 +2520,16 @@
         <v>9.76</v>
       </c>
       <c r="H5" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="I5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J5">
         <v>7</v>
       </c>
       <c r="K5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L5">
         <v>2023</v>
@@ -2537,13 +2537,13 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>73.852223505040655</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D6">
         <v>5596197.0122441389</v>
@@ -2558,16 +2558,16 @@
         <v>9.76</v>
       </c>
       <c r="H6" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="I6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J6">
         <v>7</v>
       </c>
       <c r="K6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L6">
         <v>2023</v>
@@ -2575,13 +2575,13 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>48.269739100732245</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D7">
         <v>9672845.2572229281</v>
@@ -2596,16 +2596,16 @@
         <v>9.76</v>
       </c>
       <c r="H7" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="I7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J7">
         <v>7</v>
       </c>
       <c r="K7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L7">
         <v>2023</v>
@@ -2613,13 +2613,13 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>53.921683329591083</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D8">
         <v>7680521.10612207</v>
@@ -2634,16 +2634,16 @@
         <v>9.76</v>
       </c>
       <c r="H8" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="I8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J8">
         <v>7</v>
       </c>
       <c r="K8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L8">
         <v>2023</v>
@@ -2651,13 +2651,13 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>48.195371413510415</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D9">
         <v>8041263.6919332361</v>
@@ -2672,16 +2672,16 @@
         <v>9.76</v>
       </c>
       <c r="H9" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="I9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J9">
         <v>7</v>
       </c>
       <c r="K9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L9">
         <v>2023</v>
@@ -2689,13 +2689,13 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>50.872608153496181</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D10">
         <v>9432450.9942557216</v>
@@ -2710,16 +2710,16 @@
         <v>9.76</v>
       </c>
       <c r="H10" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="I10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J10">
         <v>7</v>
       </c>
       <c r="K10" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L10">
         <v>2023</v>
@@ -2727,13 +2727,13 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>52.434329585154543</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D11">
         <v>5512739.3813272221</v>
@@ -2748,16 +2748,16 @@
         <v>9.76</v>
       </c>
       <c r="H11" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="I11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J11">
         <v>7</v>
       </c>
       <c r="K11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L11">
         <v>2023</v>
@@ -2765,13 +2765,13 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>53.17800645737281</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D12">
         <v>8744341.3154321369</v>
@@ -2786,16 +2786,16 @@
         <v>9.76</v>
       </c>
       <c r="H12" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="I12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J12">
         <v>7</v>
       </c>
       <c r="K12" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L12">
         <v>2023</v>
@@ -2803,13 +2803,13 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>60.83787824122097</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D13">
         <v>6739203.6965410467</v>
@@ -2824,16 +2824,16 @@
         <v>9.76</v>
       </c>
       <c r="H13" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="I13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J13">
         <v>7</v>
       </c>
       <c r="K13" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L13">
         <v>2023</v>
@@ -2841,13 +2841,13 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B14">
         <v>42.245956435764278</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D14">
         <v>7670504.6784984348</v>
@@ -2862,16 +2862,16 @@
         <v>9.76</v>
       </c>
       <c r="H14" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="I14" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J14">
         <v>8</v>
       </c>
       <c r="K14" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L14">
         <v>2023</v>
@@ -2879,13 +2879,13 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>59.053053747897124</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D15">
         <v>10240115.241281392</v>
@@ -2900,16 +2900,16 @@
         <v>9.76</v>
       </c>
       <c r="H15" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="I15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J15">
         <v>8</v>
       </c>
       <c r="K15" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L15">
         <v>2023</v>
@@ -2917,13 +2917,13 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B16">
         <v>49.905828219612438</v>
       </c>
       <c r="C16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D16">
         <v>8994978.7930635121</v>
@@ -2938,16 +2938,16 @@
         <v>9.76</v>
       </c>
       <c r="H16" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="I16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J16">
         <v>8</v>
       </c>
       <c r="K16" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L16">
         <v>2023</v>
@@ -2955,13 +2955,13 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>65.076836412865092</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D17">
         <v>6830825.6609172272</v>
@@ -2976,16 +2976,16 @@
         <v>9.76</v>
       </c>
       <c r="H17" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="I17" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J17">
         <v>8</v>
       </c>
       <c r="K17" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L17">
         <v>2023</v>
@@ -2993,13 +2993,13 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>61.507187426217413</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D18">
         <v>6945353.116387452</v>
@@ -3014,16 +3014,16 @@
         <v>9.76</v>
       </c>
       <c r="H18" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="I18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J18">
         <v>8</v>
       </c>
       <c r="K18" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L18">
         <v>2023</v>
@@ -3031,13 +3031,13 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>69.16705921006556</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D19">
         <v>7573780.0057102162</v>
@@ -3052,16 +3052,16 @@
         <v>9.76</v>
       </c>
       <c r="H19" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="I19" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J19">
         <v>8</v>
       </c>
       <c r="K19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L19">
         <v>2023</v>
@@ -3069,13 +3069,13 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B20">
         <v>48.195371413510415</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D20">
         <v>3845930.2290744125</v>
@@ -3090,16 +3090,16 @@
         <v>9.76</v>
       </c>
       <c r="H20" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="I20" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J20">
         <v>8</v>
       </c>
       <c r="K20" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L20">
         <v>2023</v>
@@ -3107,13 +3107,13 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B21">
         <v>41.874117999655148</v>
       </c>
       <c r="C21" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D21">
         <v>6735575.1038924847</v>
@@ -3128,16 +3128,16 @@
         <v>9.76</v>
       </c>
       <c r="H21" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="I21" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J21">
         <v>8</v>
       </c>
       <c r="K21" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L21">
         <v>2023</v>
@@ -3145,13 +3145,13 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>45.815605422411963</v>
       </c>
       <c r="C22" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D22">
         <v>9044796.3463010527</v>
@@ -3166,16 +3166,16 @@
         <v>9.76</v>
       </c>
       <c r="H22" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="I22" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J22">
         <v>8</v>
       </c>
       <c r="K22" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L22">
         <v>2023</v>
@@ -3183,13 +3183,13 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>64.258791853425009</v>
       </c>
       <c r="C23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D23">
         <v>9109657.4398940969</v>
@@ -3204,16 +3204,16 @@
         <v>9.76</v>
       </c>
       <c r="H23" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="I23" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J23">
         <v>8</v>
       </c>
       <c r="K23" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L23">
         <v>2023</v>
@@ -3221,13 +3221,13 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B24">
         <v>49.980195906834261</v>
       </c>
       <c r="C24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D24">
         <v>10200881.083268819</v>
@@ -3242,16 +3242,16 @@
         <v>9.76</v>
       </c>
       <c r="H24" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="I24" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J24">
         <v>8</v>
       </c>
       <c r="K24" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L24">
         <v>2023</v>
@@ -3259,13 +3259,13 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B25">
         <v>57.045126192907809</v>
       </c>
       <c r="C25" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D25">
         <v>9227397.7117718998</v>
@@ -3280,16 +3280,16 @@
         <v>9.76</v>
       </c>
       <c r="H25" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="I25" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J25">
         <v>8</v>
       </c>
       <c r="K25" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L25">
         <v>2023</v>
@@ -3297,13 +3297,13 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B26">
         <v>68.94395614840009</v>
       </c>
       <c r="C26" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D26">
         <v>9311497.905970335</v>
@@ -3318,16 +3318,16 @@
         <v>9.76</v>
       </c>
       <c r="H26" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="I26" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J26">
         <v>9</v>
       </c>
       <c r="K26" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L26">
         <v>2023</v>
@@ -3335,13 +3335,13 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>59.871098307337213</v>
       </c>
       <c r="C27" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D27">
         <v>9904999.5910506938</v>
@@ -3356,16 +3356,16 @@
         <v>9.76</v>
       </c>
       <c r="H27" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="I27" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J27">
         <v>9</v>
       </c>
       <c r="K27" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L27">
         <v>2023</v>
@@ -3373,13 +3373,13 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B28">
         <v>59.647995245671744</v>
       </c>
       <c r="C28" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D28">
         <v>9488278.4040674455</v>
@@ -3394,16 +3394,16 @@
         <v>9.76</v>
       </c>
       <c r="H28" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="I28" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J28">
         <v>9</v>
       </c>
       <c r="K28" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L28">
         <v>2023</v>
@@ -3411,13 +3411,13 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B29">
         <v>48.715945224063205</v>
       </c>
       <c r="C29" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D29">
         <v>10083934.566032887</v>
@@ -3432,16 +3432,16 @@
         <v>9.76</v>
       </c>
       <c r="H29" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="I29" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J29">
         <v>9</v>
       </c>
       <c r="K29" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L29">
         <v>2023</v>
@@ -3449,13 +3449,13 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B30">
         <v>47.674797602957632</v>
       </c>
       <c r="C30" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D30">
         <v>9269239.9207506273</v>
@@ -3470,16 +3470,16 @@
         <v>9.76</v>
       </c>
       <c r="H30" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="I30" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J30">
         <v>9</v>
       </c>
       <c r="K30" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L30">
         <v>2023</v>
@@ -3487,13 +3487,13 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B31">
         <v>45.518134673524656</v>
       </c>
       <c r="C31" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D31">
         <v>8256106.615000153</v>
@@ -3508,16 +3508,16 @@
         <v>9.76</v>
       </c>
       <c r="H31" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="I31" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J31">
         <v>9</v>
       </c>
       <c r="K31" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L31">
         <v>2023</v>
@@ -3525,13 +3525,13 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B32">
         <v>53.624212580703777</v>
       </c>
       <c r="C32" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D32">
         <v>8884760.2913634535</v>
@@ -3546,16 +3546,16 @@
         <v>9.76</v>
       </c>
       <c r="H32" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="I32" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J32">
         <v>9</v>
       </c>
       <c r="K32" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L32">
         <v>2023</v>
@@ -3563,13 +3563,13 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>61.804658175104727</v>
       </c>
       <c r="C33" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D33">
         <v>10424644.296596784</v>
@@ -3584,16 +3584,16 @@
         <v>9.76</v>
       </c>
       <c r="H33" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="I33" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J33">
         <v>9</v>
       </c>
       <c r="K33" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L33">
         <v>2023</v>
@@ -3601,13 +3601,13 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>60.168569056224527</v>
       </c>
       <c r="C34" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D34">
         <v>9952549.2738828845</v>
@@ -3622,16 +3622,16 @@
         <v>9.76</v>
       </c>
       <c r="H34" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="I34" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J34">
         <v>9</v>
       </c>
       <c r="K34" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L34">
         <v>2023</v>
@@ -3639,13 +3639,13 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>45.964340796855616</v>
       </c>
       <c r="C35" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D35">
         <v>5983549.2774780905</v>
@@ -3660,16 +3660,16 @@
         <v>9.76</v>
       </c>
       <c r="H35" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="I35" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J35">
         <v>9</v>
       </c>
       <c r="K35" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L35">
         <v>2023</v>
@@ -3677,13 +3677,13 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>44.551354739640907</v>
       </c>
       <c r="C36" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D36">
         <v>7287877.1432756335</v>
@@ -3698,16 +3698,16 @@
         <v>9.76</v>
       </c>
       <c r="H36" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="I36" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J36">
         <v>9</v>
       </c>
       <c r="K36" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L36">
         <v>2023</v>
@@ -3715,13 +3715,13 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>45.741237735190133</v>
       </c>
       <c r="C37" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D37">
         <v>3169046.508757316</v>
@@ -3736,16 +3736,16 @@
         <v>9.76</v>
       </c>
       <c r="H37" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="I37" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J37">
         <v>9</v>
       </c>
       <c r="K37" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L37">
         <v>2023</v>
@@ -3753,13 +3753,13 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B38">
         <v>51.606845356122186</v>
       </c>
       <c r="C38" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D38">
         <v>9313760.3263054416</v>
@@ -3774,16 +3774,16 @@
         <v>8.27</v>
       </c>
       <c r="H38" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I38" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J38">
         <v>7</v>
       </c>
       <c r="K38" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L38">
         <v>2023</v>
@@ -3791,13 +3791,13 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B39">
         <v>32.298451165162334</v>
       </c>
       <c r="C39" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D39">
         <v>9933770.2693806682</v>
@@ -3812,16 +3812,16 @@
         <v>8.27</v>
       </c>
       <c r="H39" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I39" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J39">
         <v>7</v>
       </c>
       <c r="K39" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L39">
         <v>2023</v>
@@ -3829,13 +3829,13 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B40">
         <v>41.480594335773759</v>
       </c>
       <c r="C40" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D40">
         <v>9985039.8095094804</v>
@@ -3850,16 +3850,16 @@
         <v>8.27</v>
       </c>
       <c r="H40" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I40" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J40">
         <v>7</v>
       </c>
       <c r="K40" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L40">
         <v>2023</v>
@@ -3867,13 +3867,13 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B41">
         <v>17.907454761608804</v>
       </c>
       <c r="C41" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D41">
         <v>7125584.8564043045</v>
@@ -3888,16 +3888,16 @@
         <v>8.27</v>
       </c>
       <c r="H41" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I41" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J41">
         <v>7</v>
       </c>
       <c r="K41" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L41">
         <v>2023</v>
@@ -3905,13 +3905,13 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <v>50.50423177216517</v>
       </c>
       <c r="C42" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D42">
         <v>8153647.9010553304</v>
@@ -3926,16 +3926,16 @@
         <v>8.27</v>
       </c>
       <c r="H42" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I42" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J42">
         <v>7</v>
       </c>
       <c r="K42" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L42">
         <v>2023</v>
@@ -3943,13 +3943,13 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B43">
         <v>25.734274476615163</v>
       </c>
       <c r="C43" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D43">
         <v>8049430.6685981015</v>
@@ -3964,16 +3964,16 @@
         <v>8.27</v>
       </c>
       <c r="H43" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I43" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J43">
         <v>7</v>
       </c>
       <c r="K43" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L43">
         <v>2023</v>
@@ -3981,13 +3981,13 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B44">
         <v>35.731621248131255</v>
       </c>
       <c r="C44" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D44">
         <v>8221029.0319063449</v>
@@ -4002,16 +4002,16 @@
         <v>8.27</v>
       </c>
       <c r="H44" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I44" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J44">
         <v>7</v>
       </c>
       <c r="K44" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L44">
         <v>2023</v>
@@ -4019,13 +4019,13 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>24.425691237045786</v>
       </c>
       <c r="C45" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D45">
         <v>8080248.8574153017</v>
@@ -4040,16 +4040,16 @@
         <v>8.27</v>
       </c>
       <c r="H45" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I45" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J45">
         <v>7</v>
       </c>
       <c r="K45" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L45">
         <v>2023</v>
@@ -4057,13 +4057,13 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B46">
         <v>31.279827024485598</v>
       </c>
       <c r="C46" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D46">
         <v>9302835.8025795035</v>
@@ -4078,16 +4078,16 @@
         <v>8.27</v>
       </c>
       <c r="H46" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I46" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J46">
         <v>7</v>
       </c>
       <c r="K46" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L46">
         <v>2023</v>
@@ -4095,13 +4095,13 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B47">
         <v>19.419498976025046</v>
       </c>
       <c r="C47" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D47">
         <v>6668088.270159197</v>
@@ -4116,16 +4116,16 @@
         <v>8.27</v>
       </c>
       <c r="H47" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I47" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J47">
         <v>7</v>
       </c>
       <c r="K47" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L47">
         <v>2023</v>
@@ -4133,13 +4133,13 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B48">
         <v>36.89202342822248</v>
       </c>
       <c r="C48" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D48">
         <v>9331448.667231245</v>
@@ -4154,16 +4154,16 @@
         <v>8.27</v>
       </c>
       <c r="H48" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I48" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J48">
         <v>7</v>
       </c>
       <c r="K48" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L48">
         <v>2023</v>
@@ -4171,13 +4171,13 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>47.64363899817279</v>
       </c>
       <c r="C49" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D49">
         <v>8200303.1052154526</v>
@@ -4192,16 +4192,16 @@
         <v>8.27</v>
       </c>
       <c r="H49" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I49" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J49">
         <v>7</v>
       </c>
       <c r="K49" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L49">
         <v>2023</v>
@@ -4209,13 +4209,13 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B50">
         <v>20.416326976938368</v>
       </c>
       <c r="C50" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D50">
         <v>7306856.8070388855</v>
@@ -4230,16 +4230,16 @@
         <v>8.27</v>
       </c>
       <c r="H50" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I50" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J50">
         <v>8</v>
       </c>
       <c r="K50" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L50">
         <v>2023</v>
@@ -4247,13 +4247,13 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B51">
         <v>28.416089055773075</v>
       </c>
       <c r="C51" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D51">
         <v>9770407.1703028884</v>
@@ -4268,16 +4268,16 @@
         <v>8.27</v>
       </c>
       <c r="H51" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I51" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J51">
         <v>8</v>
       </c>
       <c r="K51" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L51">
         <v>2023</v>
@@ -4285,13 +4285,13 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>31.649936693626792</v>
       </c>
       <c r="C52" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D52">
         <v>8208002.9521015901</v>
@@ -4306,16 +4306,16 @@
         <v>8.27</v>
       </c>
       <c r="H52" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I52" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J52">
         <v>8</v>
       </c>
       <c r="K52" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L52">
         <v>2023</v>
@@ -4323,13 +4323,13 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B53">
         <v>38.143780445792657</v>
       </c>
       <c r="C53" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D53">
         <v>8809623.5045252554</v>
@@ -4344,16 +4344,16 @@
         <v>8.27</v>
       </c>
       <c r="H53" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I53" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J53">
         <v>8</v>
       </c>
       <c r="K53" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L53">
         <v>2023</v>
@@ -4361,13 +4361,13 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B54">
         <v>38.87590419491336</v>
       </c>
       <c r="C54" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D54">
         <v>8765904.7662957497</v>
@@ -4382,16 +4382,16 @@
         <v>8.27</v>
       </c>
       <c r="H54" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I54" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J54">
         <v>8</v>
       </c>
       <c r="K54" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L54">
         <v>2023</v>
@@ -4399,13 +4399,13 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B55">
         <v>50.209524327975629</v>
       </c>
       <c r="C55" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D55">
         <v>13042842.193863202</v>
@@ -4420,16 +4420,16 @@
         <v>8.27</v>
       </c>
       <c r="H55" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I55" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J55">
         <v>8</v>
       </c>
       <c r="K55" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L55">
         <v>2023</v>
@@ -4437,13 +4437,13 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B56">
         <v>21.694981430641825</v>
       </c>
       <c r="C56" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D56">
         <v>4154323.7713554609</v>
@@ -4458,16 +4458,16 @@
         <v>8.27</v>
       </c>
       <c r="H56" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I56" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J56">
         <v>8</v>
       </c>
       <c r="K56" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L56">
         <v>2023</v>
@@ -4475,13 +4475,13 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B57">
         <v>18.738264707372021</v>
       </c>
       <c r="C57" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D57">
         <v>5949347.6305274982</v>
@@ -4496,16 +4496,16 @@
         <v>8.27</v>
       </c>
       <c r="H57" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I57" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J57">
         <v>8</v>
       </c>
       <c r="K57" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L57">
         <v>2023</v>
@@ -4513,13 +4513,13 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B58">
         <v>23.914853632784297</v>
       </c>
       <c r="C58" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D58">
         <v>6834829.138421528</v>
@@ -4534,16 +4534,16 @@
         <v>8.27</v>
       </c>
       <c r="H58" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I58" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J58">
         <v>8</v>
       </c>
       <c r="K58" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L58">
         <v>2023</v>
@@ -4551,13 +4551,13 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B59">
         <v>44.745990777399655</v>
       </c>
       <c r="C59" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D59">
         <v>8904597.7514159139</v>
@@ -4572,16 +4572,16 @@
         <v>8.27</v>
       </c>
       <c r="H59" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I59" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J59">
         <v>8</v>
       </c>
       <c r="K59" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L59">
         <v>2023</v>
@@ -4589,13 +4589,13 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B60">
         <v>27.422389203540092</v>
       </c>
       <c r="C60" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D60">
         <v>8387667.7282196116</v>
@@ -4610,16 +4610,16 @@
         <v>8.27</v>
       </c>
       <c r="H60" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I60" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J60">
         <v>8</v>
       </c>
       <c r="K60" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L60">
         <v>2023</v>
@@ -4627,13 +4627,13 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B61">
         <v>34.843153290383498</v>
       </c>
       <c r="C61" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D61">
         <v>8762282.3054836262</v>
@@ -4648,16 +4648,16 @@
         <v>8.27</v>
       </c>
       <c r="H61" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I61" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J61">
         <v>8</v>
       </c>
       <c r="K61" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L61">
         <v>2023</v>
@@ -4665,13 +4665,13 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>51.764646168154954</v>
       </c>
       <c r="C62" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D62">
         <v>10685420.101643579</v>
@@ -4686,16 +4686,16 @@
         <v>8.27</v>
       </c>
       <c r="H62" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I62" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J62">
         <v>9</v>
       </c>
       <c r="K62" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L62">
         <v>2023</v>
@@ -4703,13 +4703,13 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B63">
         <v>35.676497262380927</v>
       </c>
       <c r="C63" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D63">
         <v>12857659.27581666</v>
@@ -4724,16 +4724,16 @@
         <v>8.27</v>
       </c>
       <c r="H63" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I63" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J63">
         <v>9</v>
       </c>
       <c r="K63" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L63">
         <v>2023</v>
@@ -4741,13 +4741,13 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B64">
         <v>39.977909808948809</v>
       </c>
       <c r="C64" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D64">
         <v>10708918.994511137</v>
@@ -4762,16 +4762,16 @@
         <v>8.27</v>
       </c>
       <c r="H64" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I64" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J64">
         <v>9</v>
       </c>
       <c r="K64" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L64">
         <v>2023</v>
@@ -4779,13 +4779,13 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B65">
         <v>26.750159662422032</v>
       </c>
       <c r="C65" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D65">
         <v>9264722.5117540509</v>
@@ -4800,16 +4800,16 @@
         <v>8.27</v>
       </c>
       <c r="H65" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I65" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J65">
         <v>9</v>
       </c>
       <c r="K65" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L65">
         <v>2023</v>
@@ -4817,13 +4817,13 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B66">
         <v>25.134315060484873</v>
       </c>
       <c r="C66" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D66">
         <v>8755246.8490866739</v>
@@ -4838,16 +4838,16 @@
         <v>8.27</v>
       </c>
       <c r="H66" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I66" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J66">
         <v>9</v>
       </c>
       <c r="K66" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L66">
         <v>2023</v>
@@ -4855,13 +4855,13 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B67">
         <v>20.0306694747586</v>
       </c>
       <c r="C67" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D67">
         <v>7920608.8190212529</v>
@@ -4876,16 +4876,16 @@
         <v>8.27</v>
       </c>
       <c r="H67" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I67" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J67">
         <v>9</v>
       </c>
       <c r="K67" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L67">
         <v>2023</v>
@@ -4893,13 +4893,13 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B68">
         <v>25.424818890684545</v>
       </c>
       <c r="C68" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D68">
         <v>6314659.8964129314</v>
@@ -4914,16 +4914,16 @@
         <v>8.27</v>
       </c>
       <c r="H68" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I68" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J68">
         <v>9</v>
       </c>
       <c r="K68" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L68">
         <v>2023</v>
@@ -4931,13 +4931,13 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B69">
         <v>37.951071806628683</v>
       </c>
       <c r="C69" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D69">
         <v>7845662.1907759113</v>
@@ -4952,16 +4952,16 @@
         <v>8.27</v>
       </c>
       <c r="H69" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I69" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J69">
         <v>9</v>
       </c>
       <c r="K69" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L69">
         <v>2023</v>
@@ -4969,13 +4969,13 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>33.598007275781583</v>
       </c>
       <c r="C70" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D70">
         <v>8594130.3097820207</v>
@@ -4990,16 +4990,16 @@
         <v>8.27</v>
       </c>
       <c r="H70" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I70" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J70">
         <v>9</v>
       </c>
       <c r="K70" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L70">
         <v>2023</v>
@@ -5007,13 +5007,13 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B71">
         <v>18.58340702713507</v>
       </c>
       <c r="C71" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D71">
         <v>4867220.8807568057</v>
@@ -5028,16 +5028,16 @@
         <v>8.27</v>
       </c>
       <c r="H71" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I71" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J71">
         <v>9</v>
       </c>
       <c r="K71" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L71">
         <v>2023</v>
@@ -5045,13 +5045,13 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B72">
         <v>20.345707911444631</v>
       </c>
       <c r="C72" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D72">
         <v>6114412.7991325343</v>
@@ -5066,16 +5066,16 @@
         <v>8.27</v>
       </c>
       <c r="H72" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I72" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J72">
         <v>9</v>
       </c>
       <c r="K72" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L72">
         <v>2023</v>
@@ -5083,13 +5083,13 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B73">
         <v>20.278260452500454</v>
       </c>
       <c r="C73" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D73">
         <v>3430132.7268083449</v>
@@ -5104,16 +5104,16 @@
         <v>8.27</v>
       </c>
       <c r="H73" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I73" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J73">
         <v>9</v>
       </c>
       <c r="K73" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L73">
         <v>2023</v>
@@ -5121,13 +5121,13 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B74">
         <v>109.70242420411478</v>
       </c>
       <c r="C74" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D74">
         <v>262.58999999999997</v>
@@ -5142,7 +5142,7 @@
         <v>8.27</v>
       </c>
       <c r="H74" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="K74">
         <v>0</v>
@@ -5153,13 +5153,13 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B75">
         <v>109.70242420411478</v>
       </c>
       <c r="C75" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D75">
         <v>289.99</v>
@@ -5174,7 +5174,7 @@
         <v>8.27</v>
       </c>
       <c r="H75" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="K75">
         <v>0</v>
@@ -5185,13 +5185,13 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B76">
         <v>140.43589053368524</v>
       </c>
       <c r="C76" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D76">
         <v>338.69</v>
@@ -5206,7 +5206,7 @@
         <v>8.27</v>
       </c>
       <c r="H76" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="K76">
         <v>0</v>
@@ -5217,13 +5217,13 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B77">
         <v>100.02707369295371</v>
       </c>
       <c r="C77" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D77">
         <v>149.69</v>
@@ -5238,7 +5238,7 @@
         <v>8.27</v>
       </c>
       <c r="H77" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="K77">
         <v>0</v>
@@ -5249,13 +5249,13 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B78">
         <v>91.489999712517459</v>
       </c>
       <c r="C78" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D78">
         <v>222.19</v>
@@ -5270,7 +5270,7 @@
         <v>8.27</v>
       </c>
       <c r="H78" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="K78">
         <v>0</v>
@@ -5281,13 +5281,13 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B79">
         <v>126.77657216498727</v>
       </c>
       <c r="C79" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D79">
         <v>154.99</v>
@@ -5302,7 +5302,7 @@
         <v>8.27</v>
       </c>
       <c r="H79" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="K79">
         <v>0</v>
@@ -5313,13 +5313,13 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B80">
         <v>249.14129921790678</v>
       </c>
       <c r="C80" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D80">
         <v>425.19</v>
@@ -5334,7 +5334,7 @@
         <v>8.27</v>
       </c>
       <c r="H80" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="K80">
         <v>0</v>
@@ -5345,13 +5345,13 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B81">
         <v>207.59420584645039</v>
       </c>
       <c r="C81" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D81">
         <v>531.57999999999993</v>
@@ -5366,7 +5366,7 @@
         <v>8.27</v>
       </c>
       <c r="H81" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="K81">
         <v>0</v>
@@ -5377,13 +5377,13 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B82">
         <v>290.68839258936316</v>
       </c>
       <c r="C82" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D82">
         <v>380.69</v>
@@ -5398,7 +5398,7 @@
         <v>8.27</v>
       </c>
       <c r="H82" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="K82">
         <v>0</v>
@@ -5409,13 +5409,13 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B83">
         <v>262.23147932124232</v>
       </c>
       <c r="C83" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D83">
         <v>167.59</v>
@@ -5430,7 +5430,7 @@
         <v>8.27</v>
       </c>
       <c r="H83" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="K83">
         <v>0</v>
@@ -5441,13 +5441,13 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B84">
         <v>233.77456605312153</v>
       </c>
       <c r="C84" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D84">
         <v>417.58</v>
@@ -5462,7 +5462,7 @@
         <v>8.27</v>
       </c>
       <c r="H84" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="K84">
         <v>0</v>
@@ -5473,13 +5473,13 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B85">
         <v>265.64630891341687</v>
       </c>
       <c r="C85" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D85">
         <v>241.49</v>
@@ -5494,7 +5494,7 @@
         <v>8.27</v>
       </c>
       <c r="H85" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="K85">
         <v>0</v>
@@ -5505,13 +5505,13 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B86">
         <v>51.593407310612058</v>
       </c>
       <c r="C86" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D86">
         <v>1090.5417701149424</v>
@@ -5526,7 +5526,7 @@
         <v>8.27</v>
       </c>
       <c r="H86" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K86">
         <v>0</v>
@@ -5537,13 +5537,13 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B87">
         <v>53.414649759771791</v>
       </c>
       <c r="C87" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D87">
         <v>881.44811320754729</v>
@@ -5558,7 +5558,7 @@
         <v>8.27</v>
       </c>
       <c r="H87" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K87">
         <v>0</v>
@@ -5569,13 +5569,13 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B88">
         <v>61.8948099136718</v>
       </c>
       <c r="C88" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D88">
         <v>1193.7136565977742</v>
@@ -5590,7 +5590,7 @@
         <v>8.27</v>
       </c>
       <c r="H88" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K88">
         <v>0</v>
@@ -5601,13 +5601,13 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B89">
         <v>47.780180932683869</v>
       </c>
       <c r="C89" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D89">
         <v>759.57240875912407</v>
@@ -5622,7 +5622,7 @@
         <v>8.27</v>
       </c>
       <c r="H89" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K89">
         <v>0</v>
@@ -5633,13 +5633,13 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B90">
         <v>47.438697973466425</v>
       </c>
       <c r="C90" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D90">
         <v>1000.6538095238094</v>
@@ -5654,7 +5654,7 @@
         <v>8.27</v>
       </c>
       <c r="H90" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K90">
         <v>0</v>
@@ -5665,13 +5665,13 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B91">
         <v>48.463146851118772</v>
       </c>
       <c r="C91" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D91">
         <v>727.80548314606733</v>
@@ -5686,7 +5686,7 @@
         <v>8.27</v>
       </c>
       <c r="H91" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K91">
         <v>0</v>
@@ -5697,13 +5697,13 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B92">
         <v>91.489999712517459</v>
       </c>
       <c r="C92" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D92">
         <v>1504.9512903225805</v>
@@ -5718,7 +5718,7 @@
         <v>8.27</v>
       </c>
       <c r="H92" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K92">
         <v>0</v>
@@ -5729,13 +5729,13 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B93">
         <v>92.628276243242283</v>
       </c>
       <c r="C93" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D93">
         <v>1520.3560254777069</v>
@@ -5750,7 +5750,7 @@
         <v>8.27</v>
       </c>
       <c r="H93" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K93">
         <v>0</v>
@@ -5761,13 +5761,13 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B94">
         <v>113.11725379628928</v>
       </c>
       <c r="C94" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D94">
         <v>1446.6169014084508</v>
@@ -5782,7 +5782,7 @@
         <v>8.27</v>
       </c>
       <c r="H94" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K94">
         <v>0</v>
@@ -5793,13 +5793,13 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B95">
         <v>81.814649201356374</v>
       </c>
       <c r="C95" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D95">
         <v>1233.8929436619719</v>
@@ -5814,7 +5814,7 @@
         <v>8.27</v>
       </c>
       <c r="H95" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K95">
         <v>0</v>
@@ -5825,13 +5825,13 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B96">
         <v>93.197414508604709</v>
       </c>
       <c r="C96" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D96">
         <v>1373.0471980074717</v>
@@ -5846,7 +5846,7 @@
         <v>8.27</v>
       </c>
       <c r="H96" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K96">
         <v>0</v>
@@ -5857,13 +5857,13 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B97">
         <v>102.30362675440335</v>
       </c>
       <c r="C97" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D97">
         <v>1262.0371304347825</v>
@@ -5878,7 +5878,7 @@
         <v>8.27</v>
       </c>
       <c r="H97" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -5889,13 +5889,13 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B98">
         <v>57.34170379077247</v>
       </c>
       <c r="C98" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D98">
         <v>1172.6618834080716</v>
@@ -5910,7 +5910,7 @@
         <v>8.27</v>
       </c>
       <c r="H98" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K98">
         <v>1</v>
@@ -5921,13 +5921,13 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B99">
         <v>55.691202821221459</v>
       </c>
       <c r="C99" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D99">
         <v>1168.4528735632184</v>
@@ -5942,7 +5942,7 @@
         <v>8.27</v>
       </c>
       <c r="H99" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K99">
         <v>1</v>
@@ -5953,13 +5953,13 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B100">
         <v>65.878777771208718</v>
       </c>
       <c r="C100" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D100">
         <v>1323.16</v>
@@ -5974,7 +5974,7 @@
         <v>8.27</v>
       </c>
       <c r="H100" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K100">
         <v>1</v>
@@ -5985,13 +5985,13 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B101">
         <v>48.975371289944945</v>
       </c>
       <c r="C101" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D101">
         <v>636.63701298701301</v>
@@ -6006,7 +6006,7 @@
         <v>8.27</v>
       </c>
       <c r="H101" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K101">
         <v>1</v>
@@ -6017,13 +6017,13 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B102">
         <v>55.918858127366434</v>
       </c>
       <c r="C102" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D102">
         <v>1055.7784421052631</v>
@@ -6038,7 +6038,7 @@
         <v>8.27</v>
       </c>
       <c r="H102" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K102">
         <v>1</v>
@@ -6049,13 +6049,13 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B103">
         <v>59.049118586859713</v>
       </c>
       <c r="C103" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D103">
         <v>892.21962230215831</v>
@@ -6070,7 +6070,7 @@
         <v>8.27</v>
       </c>
       <c r="H103" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K103">
         <v>1</v>
@@ -6081,13 +6081,13 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B104">
         <v>80.676372670631537</v>
       </c>
       <c r="C104" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D104">
         <v>1370.8583823529414</v>
@@ -6102,7 +6102,7 @@
         <v>8.27</v>
       </c>
       <c r="H104" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K104">
         <v>1</v>
@@ -6113,13 +6113,13 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B105">
         <v>93.766552773967106</v>
       </c>
       <c r="C105" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D105">
         <v>1552.92809352518</v>
@@ -6134,7 +6134,7 @@
         <v>8.27</v>
       </c>
       <c r="H105" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K105">
         <v>1</v>
@@ -6145,13 +6145,13 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B106">
         <v>121.65432777672552</v>
       </c>
       <c r="C106" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D106">
         <v>1454.5465124884367</v>
@@ -6166,7 +6166,7 @@
         <v>8.27</v>
       </c>
       <c r="H106" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K106">
         <v>1</v>
@@ -6177,13 +6177,13 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B107">
         <v>86.367755324255711</v>
       </c>
       <c r="C107" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D107">
         <v>1186.4118236173395</v>
@@ -6198,7 +6198,7 @@
         <v>8.27</v>
       </c>
       <c r="H107" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K107">
         <v>1</v>
@@ -6209,13 +6209,13 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B108">
         <v>104.0110415504906</v>
       </c>
       <c r="C108" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D108">
         <v>1379.4766809881849</v>
@@ -6230,7 +6230,7 @@
         <v>8.27</v>
       </c>
       <c r="H108" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K108">
         <v>1</v>
@@ -6241,13 +6241,13 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B109">
         <v>127.9148486957121</v>
       </c>
       <c r="C109" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="D109">
         <v>1295.1398368522073</v>
@@ -6262,7 +6262,7 @@
         <v>8.27</v>
       </c>
       <c r="H109" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K109">
         <v>1</v>
@@ -6273,13 +6273,13 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B110">
         <v>31.787395675999971</v>
       </c>
       <c r="C110" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D110">
         <v>773.39030136986287</v>
@@ -6294,7 +6294,7 @@
         <v>8.27</v>
       </c>
       <c r="H110" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K110">
         <v>0</v>
@@ -6305,13 +6305,13 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B111">
         <v>35.486794400855679</v>
       </c>
       <c r="C111" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D111">
         <v>655.9687612903225</v>
@@ -6326,7 +6326,7 @@
         <v>8.27</v>
       </c>
       <c r="H111" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K111">
         <v>0</v>
@@ -6337,13 +6337,13 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B112">
         <v>32.071964808681187</v>
       </c>
       <c r="C112" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D112">
         <v>835.4433796296297</v>
@@ -6358,7 +6358,7 @@
         <v>8.27</v>
       </c>
       <c r="H112" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K112">
         <v>0</v>
@@ -6369,13 +6369,13 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B113">
         <v>36.22667414582682</v>
       </c>
       <c r="C113" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D113">
         <v>371.36043781094537</v>
@@ -6390,7 +6390,7 @@
         <v>8.27</v>
       </c>
       <c r="H113" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K113">
         <v>0</v>
@@ -6401,13 +6401,13 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B114">
         <v>31.218257410637555</v>
       </c>
       <c r="C114" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D114">
         <v>766.21653250774</v>
@@ -6422,7 +6422,7 @@
         <v>8.27</v>
       </c>
       <c r="H114" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K114">
         <v>0</v>
@@ -6433,13 +6433,13 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B115">
         <v>28.714049043042923</v>
       </c>
       <c r="C115" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D115">
         <v>586.8017509433962</v>
@@ -6454,7 +6454,7 @@
         <v>8.27</v>
       </c>
       <c r="H115" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K115">
         <v>0</v>
@@ -6465,13 +6465,13 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B116">
         <v>45.275972565089241</v>
       </c>
       <c r="C116" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D116">
         <v>1198.2045193929175</v>
@@ -6486,7 +6486,7 @@
         <v>8.27</v>
       </c>
       <c r="H116" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K116">
         <v>0</v>
@@ -6497,13 +6497,13 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B117">
         <v>47.723267106147631</v>
       </c>
       <c r="C117" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D117">
         <v>1132.1829657794678</v>
@@ -6518,7 +6518,7 @@
         <v>8.27</v>
       </c>
       <c r="H117" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K117">
         <v>0</v>
@@ -6529,13 +6529,13 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B118">
         <v>57.853928229598644</v>
       </c>
       <c r="C118" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D118">
         <v>1137.4956330275229</v>
@@ -6550,7 +6550,7 @@
         <v>8.27</v>
       </c>
       <c r="H118" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K118">
         <v>0</v>
@@ -6561,13 +6561,13 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B119">
         <v>44.593006646654338</v>
       </c>
       <c r="C119" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D119">
         <v>906.9951934156378</v>
@@ -6582,7 +6582,7 @@
         <v>8.27</v>
       </c>
       <c r="H119" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K119">
         <v>0</v>
@@ -6593,13 +6593,13 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B120">
         <v>44.13769603436441</v>
       </c>
       <c r="C120" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D120">
         <v>1063.4981176470585</v>
@@ -6614,7 +6614,7 @@
         <v>8.27</v>
       </c>
       <c r="H120" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K120">
         <v>0</v>
@@ -6625,13 +6625,13 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B121">
         <v>46.812645881567768</v>
       </c>
       <c r="C121" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D121">
         <v>1051.6376542372884</v>
@@ -6646,7 +6646,7 @@
         <v>8.27</v>
       </c>
       <c r="H121" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K121">
         <v>0</v>
@@ -6657,13 +6657,13 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B122">
         <v>33.836293431304675</v>
       </c>
       <c r="C122" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D122">
         <v>791.3611826086958</v>
@@ -6678,7 +6678,7 @@
         <v>8.27</v>
       </c>
       <c r="H122" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K122">
         <v>1</v>
@@ -6689,13 +6689,13 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B123">
         <v>27.860341644999302</v>
       </c>
       <c r="C123" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D123">
         <v>831.04867661691537</v>
@@ -6710,7 +6710,7 @@
         <v>8.27</v>
       </c>
       <c r="H123" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K123">
         <v>1</v>
@@ -6721,13 +6721,13 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B124">
         <v>30.023067053376483</v>
       </c>
       <c r="C124" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D124">
         <v>892.44822273781904</v>
@@ -6742,7 +6742,7 @@
         <v>8.27</v>
       </c>
       <c r="H124" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K124">
         <v>1</v>
@@ -6753,13 +6753,13 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B125">
         <v>35.372966747783202</v>
       </c>
       <c r="C125" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D125">
         <v>457.41669902912633</v>
@@ -6774,7 +6774,7 @@
         <v>8.27</v>
       </c>
       <c r="H125" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K125">
         <v>1</v>
@@ -6785,13 +6785,13 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B126">
         <v>33.551724298623469</v>
       </c>
       <c r="C126" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D126">
         <v>780.17331200000012</v>
@@ -6806,7 +6806,7 @@
         <v>8.27</v>
       </c>
       <c r="H126" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K126">
         <v>1</v>
@@ -6817,13 +6817,13 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B127">
         <v>31.04751593102883</v>
       </c>
       <c r="C127" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D127">
         <v>699.34303759398483</v>
@@ -6838,7 +6838,7 @@
         <v>8.27</v>
       </c>
       <c r="H127" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K127">
         <v>1</v>
@@ -6849,13 +6849,13 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B128">
         <v>45.105231085480519</v>
       </c>
       <c r="C128" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="D128">
         <v>1093.5623167028202</v>
@@ -6870,7 +6870,7 @@
         <v>8.27</v>
       </c>
       <c r="H128" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K128">
         <v>1</v>
@@ -6881,13 +6881,13 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B129">
         <v>47.154128840785212</v>
       </c>
       <c r="C129" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D129">
         <v>1163.9870225563909</v>
@@ -6902,7 +6902,7 @@
         <v>8.27</v>
       </c>
       <c r="H129" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K129">
         <v>1</v>
@@ -6913,13 +6913,13 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B130">
         <v>62.463948179034212</v>
       </c>
       <c r="C130" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D130">
         <v>1216.72993236715</v>
@@ -6934,7 +6934,7 @@
         <v>8.27</v>
       </c>
       <c r="H130" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K130">
         <v>1</v>
@@ -6945,13 +6945,13 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B131">
         <v>41.235090881016085</v>
       </c>
       <c r="C131" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D131">
         <v>968.2514788069077</v>
@@ -6966,7 +6966,7 @@
         <v>8.27</v>
       </c>
       <c r="H131" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K131">
         <v>1</v>
@@ -6977,13 +6977,13 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B132">
         <v>57.455531443844954</v>
       </c>
       <c r="C132" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D132">
         <v>1104.1504457142855</v>
@@ -6998,7 +6998,7 @@
         <v>8.27</v>
       </c>
       <c r="H132" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K132">
         <v>1</v>
@@ -7009,13 +7009,13 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B133">
         <v>53.130080627090592</v>
       </c>
       <c r="C133" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D133">
         <v>1065.3482487046631</v>
@@ -7030,7 +7030,7 @@
         <v>8.27</v>
       </c>
       <c r="H133" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K133">
         <v>1</v>
@@ -7041,13 +7041,13 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B134">
         <v>33.665551951695946</v>
       </c>
       <c r="C134" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D134">
         <v>984.72399999999982</v>
@@ -7062,10 +7062,10 @@
         <v>8.27</v>
       </c>
       <c r="H134" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K134" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L134">
         <v>2022</v>
@@ -7073,13 +7073,13 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B135">
         <v>39.129279299175145</v>
       </c>
       <c r="C135" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D135">
         <v>991.36410947368427</v>
@@ -7094,10 +7094,10 @@
         <v>8.27</v>
       </c>
       <c r="H135" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K135" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L135">
         <v>2022</v>
@@ -7105,13 +7105,13 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B136">
         <v>45.731283177379176</v>
       </c>
       <c r="C136" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D136">
         <v>1085.8830017699113</v>
@@ -7126,10 +7126,10 @@
         <v>8.27</v>
       </c>
       <c r="H136" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K136" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L136">
         <v>2022</v>
@@ -7137,13 +7137,13 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B137">
         <v>36.909640064261723</v>
       </c>
       <c r="C137" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D137">
         <v>923.37860133630284</v>
@@ -7158,10 +7158,10 @@
         <v>8.27</v>
       </c>
       <c r="H137" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K137" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L137">
         <v>2022</v>
@@ -7169,13 +7169,13 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B138">
         <v>33.324068992478502</v>
       </c>
       <c r="C138" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D138">
         <v>908.21606896551725</v>
@@ -7190,10 +7190,10 @@
         <v>8.27</v>
       </c>
       <c r="H138" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K138" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L138">
         <v>2022</v>
@@ -7201,13 +7201,13 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B139">
         <v>37.421864503087896</v>
       </c>
       <c r="C139" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D139">
         <v>880.69434319526613</v>
@@ -7222,10 +7222,10 @@
         <v>8.27</v>
       </c>
       <c r="H139" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K139" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L139">
         <v>2022</v>
@@ -7233,13 +7233,13 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B140">
         <v>45.67436935084293</v>
       </c>
       <c r="C140" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D140">
         <v>1127.6148977035493</v>
@@ -7254,10 +7254,10 @@
         <v>8.27</v>
       </c>
       <c r="H140" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K140" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L140">
         <v>2022</v>
@@ -7265,13 +7265,13 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B141">
         <v>43.170160983248302</v>
       </c>
       <c r="C141" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D141">
         <v>1018.7342340862419</v>
@@ -7286,10 +7286,10 @@
         <v>8.27</v>
       </c>
       <c r="H141" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K141" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L141">
         <v>2022</v>
@@ -7297,13 +7297,13 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B142">
         <v>50.113647820669776</v>
       </c>
       <c r="C142" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D142">
         <v>1118.6651803278689</v>
@@ -7318,10 +7318,10 @@
         <v>8.27</v>
       </c>
       <c r="H142" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K142" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L142">
         <v>2022</v>
@@ -7329,13 +7329,13 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B143">
         <v>39.470762258392597</v>
       </c>
       <c r="C143" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D143">
         <v>1026.8822071197408</v>
@@ -7350,10 +7350,10 @@
         <v>8.27</v>
       </c>
       <c r="H143" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K143" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L143">
         <v>2022</v>
@@ -7361,13 +7361,13 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B144">
         <v>31.787395675999971</v>
       </c>
       <c r="C144" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D144">
         <v>895.54632286995525</v>
@@ -7382,10 +7382,10 @@
         <v>8.27</v>
       </c>
       <c r="H144" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K144" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L144">
         <v>2022</v>
@@ -7393,13 +7393,13 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B145">
         <v>39.584589911465073</v>
       </c>
       <c r="C145" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="D145">
         <v>974.77252499999975</v>
@@ -7414,10 +7414,10 @@
         <v>8.27</v>
       </c>
       <c r="H145" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K145" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L145">
         <v>2022</v>
@@ -7425,13 +7425,13 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B146">
         <v>51.024269045249646</v>
       </c>
       <c r="C146" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D146">
         <v>1265.6168113879003</v>
@@ -7446,10 +7446,10 @@
         <v>8.27</v>
       </c>
       <c r="H146" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K146" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L146">
         <v>2022</v>
@@ -7457,13 +7457,13 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B147">
         <v>63.033086444396638</v>
       </c>
       <c r="C147" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D147">
         <v>1176.8638638297871</v>
@@ -7478,10 +7478,10 @@
         <v>8.27</v>
       </c>
       <c r="H147" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K147" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L147">
         <v>2022</v>
@@ -7489,13 +7489,13 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B148">
         <v>56.60182404580133</v>
       </c>
       <c r="C148" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D148">
         <v>1099.5840000000001</v>
@@ -7510,10 +7510,10 @@
         <v>8.27</v>
       </c>
       <c r="H148" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K148" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L148">
         <v>2022</v>
@@ -7521,13 +7521,13 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B149">
         <v>43.796213075146959</v>
       </c>
       <c r="C149" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D149">
         <v>1016.4694574638845</v>
@@ -7542,10 +7542,10 @@
         <v>8.27</v>
       </c>
       <c r="H149" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K149" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L149">
         <v>2022</v>
@@ -7553,13 +7553,13 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B150">
         <v>55.975771953902672</v>
       </c>
       <c r="C150" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="D150">
         <v>1135.907075144509</v>
@@ -7574,10 +7574,10 @@
         <v>8.27</v>
       </c>
       <c r="H150" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K150" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L150">
         <v>2022</v>
@@ -7585,13 +7585,13 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B151">
         <v>52.333287055583206</v>
       </c>
       <c r="C151" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D151">
         <v>1069.2496629921259</v>
@@ -7606,10 +7606,10 @@
         <v>8.27</v>
       </c>
       <c r="H151" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K151" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L151">
         <v>2022</v>
@@ -7617,13 +7617,13 @@
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B152">
         <v>63.033086444396638</v>
       </c>
       <c r="C152" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D152">
         <v>1247.3267000000003</v>
@@ -7638,10 +7638,10 @@
         <v>8.27</v>
       </c>
       <c r="H152" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K152" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L152">
         <v>2022</v>
@@ -7649,13 +7649,13 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B153">
         <v>56.772565525410045</v>
       </c>
       <c r="C153" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D153">
         <v>1214.4627391304346</v>
@@ -7670,10 +7670,10 @@
         <v>8.27</v>
       </c>
       <c r="H153" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K153" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L153">
         <v>2022</v>
@@ -7681,13 +7681,13 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B154">
         <v>59.618256852222132</v>
       </c>
       <c r="C154" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D154">
         <v>1236.0573970345963</v>
@@ -7702,10 +7702,10 @@
         <v>8.27</v>
       </c>
       <c r="H154" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K154" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L154">
         <v>2022</v>
@@ -7713,13 +7713,13 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B155">
         <v>58.309238841888579</v>
       </c>
       <c r="C155" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D155">
         <v>1260.3195234657039</v>
@@ -7734,10 +7734,10 @@
         <v>8.27</v>
       </c>
       <c r="H155" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K155" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L155">
         <v>2022</v>
@@ -7745,13 +7745,13 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B156">
         <v>56.260341086583871</v>
       </c>
       <c r="C156" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D156">
         <v>1161.0354372623572</v>
@@ -7766,10 +7766,10 @@
         <v>8.27</v>
       </c>
       <c r="H156" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K156" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L156">
         <v>2022</v>
@@ -7777,13 +7777,13 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B157">
         <v>53.130080627090592</v>
       </c>
       <c r="C157" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D157">
         <v>1141.5305142857142</v>
@@ -7798,10 +7798,10 @@
         <v>8.27</v>
       </c>
       <c r="H157" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K157" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L157">
         <v>2022</v>
@@ -7809,13 +7809,13 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B158">
         <v>42.999419503639579</v>
       </c>
       <c r="C158" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D158">
         <v>633.90695890410962</v>
@@ -7830,7 +7830,7 @@
         <v>9.76</v>
       </c>
       <c r="H158" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K158">
         <v>0</v>
@@ -7841,13 +7841,13 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B159">
         <v>46.357335269277833</v>
       </c>
       <c r="C159" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D159">
         <v>559.61349677419355</v>
@@ -7862,7 +7862,7 @@
         <v>9.76</v>
       </c>
       <c r="H159" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K159">
         <v>0</v>
@@ -7873,13 +7873,13 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B160">
         <v>43.227074809784547</v>
       </c>
       <c r="C160" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D160">
         <v>855.41078703703704</v>
@@ -7894,7 +7894,7 @@
         <v>9.76</v>
       </c>
       <c r="H160" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K160">
         <v>0</v>
@@ -7905,13 +7905,13 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B161">
         <v>47.609439453075147</v>
       </c>
       <c r="C161" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D161">
         <v>290.44553233830845</v>
@@ -7926,7 +7926,7 @@
         <v>9.76</v>
       </c>
       <c r="H161" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K161">
         <v>0</v>
@@ -7937,13 +7937,13 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B162">
         <v>39.300020778783868</v>
       </c>
       <c r="C162" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="D162">
         <v>600.04352941176467</v>
@@ -7958,7 +7958,7 @@
         <v>9.76</v>
       </c>
       <c r="H162" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K162">
         <v>0</v>
@@ -7969,13 +7969,13 @@
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B163">
         <v>45.958938483524143</v>
       </c>
       <c r="C163" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D163">
         <v>496.97485283018869</v>
@@ -7990,7 +7990,7 @@
         <v>9.76</v>
       </c>
       <c r="H163" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K163">
         <v>0</v>
@@ -8001,13 +8001,13 @@
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B164">
         <v>55.805030474293943</v>
       </c>
       <c r="C164" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D164">
         <v>1137.0568634064082</v>
@@ -8022,7 +8022,7 @@
         <v>9.76</v>
       </c>
       <c r="H164" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K164">
         <v>0</v>
@@ -8033,13 +8033,13 @@
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B165">
         <v>56.203427260047633</v>
       </c>
       <c r="C165" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="D165">
         <v>1144.7561977186308</v>
@@ -8054,7 +8054,7 @@
         <v>9.76</v>
       </c>
       <c r="H165" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K165">
         <v>0</v>
@@ -8065,13 +8065,13 @@
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B166">
         <v>64.74050124048388</v>
       </c>
       <c r="C166" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D166">
         <v>1074.6493211009176</v>
@@ -8086,7 +8086,7 @@
         <v>9.76</v>
       </c>
       <c r="H166" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K166">
         <v>0</v>
@@ -8097,13 +8097,13 @@
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B167">
         <v>44.422265167045616</v>
       </c>
       <c r="C167" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D167">
         <v>922.47764609053502</v>
@@ -8118,7 +8118,7 @@
         <v>9.76</v>
       </c>
       <c r="H167" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K167">
         <v>0</v>
@@ -8129,13 +8129,13 @@
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B168">
         <v>51.991804096365755</v>
       </c>
       <c r="C168" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D168">
         <v>1075.7484064171122</v>
@@ -8150,7 +8150,7 @@
         <v>9.76</v>
       </c>
       <c r="H168" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K168">
         <v>0</v>
@@ -8161,13 +8161,13 @@
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B169">
         <v>60.187395117584558</v>
       </c>
       <c r="C169" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D169">
         <v>1088.7501423728811</v>
@@ -8182,7 +8182,7 @@
         <v>9.76</v>
       </c>
       <c r="H169" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K169">
         <v>0</v>
@@ -8193,13 +8193,13 @@
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B170">
         <v>44.13769603436441</v>
       </c>
       <c r="C170" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D170">
         <v>856.75070144927531</v>
@@ -8214,7 +8214,7 @@
         <v>9.76</v>
       </c>
       <c r="H170" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K170">
         <v>1</v>
@@ -8225,13 +8225,13 @@
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B171">
         <v>45.332886391625486</v>
       </c>
       <c r="C171" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D171">
         <v>859.70754228855719</v>
@@ -8246,7 +8246,7 @@
         <v>9.76</v>
       </c>
       <c r="H171" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K171">
         <v>1</v>
@@ -8257,13 +8257,13 @@
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B172">
         <v>49.203026596089913</v>
       </c>
       <c r="C172" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D172">
         <v>1051.6023573085847</v>
@@ -8278,7 +8278,7 @@
         <v>9.76</v>
       </c>
       <c r="H172" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K172">
         <v>1</v>
@@ -8289,13 +8289,13 @@
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B173">
         <v>41.29200470755233</v>
       </c>
       <c r="C173" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D173">
         <v>389.10757281553396</v>
@@ -8310,7 +8310,7 @@
         <v>9.76</v>
       </c>
       <c r="H173" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K173">
         <v>1</v>
@@ -8321,13 +8321,13 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B174">
         <v>48.007836238828844</v>
       </c>
       <c r="C174" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D174">
         <v>821.18348800000012</v>
@@ -8342,7 +8342,7 @@
         <v>9.76</v>
       </c>
       <c r="H174" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K174">
         <v>1</v>
@@ -8353,13 +8353,13 @@
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B175">
         <v>43.910040728219442</v>
       </c>
       <c r="C175" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="D175">
         <v>652.13666165413542</v>
@@ -8374,7 +8374,7 @@
         <v>9.76</v>
       </c>
       <c r="H175" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K175">
         <v>1</v>
@@ -8385,13 +8385,13 @@
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B176">
         <v>58.479980321497301</v>
       </c>
       <c r="C176" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="D176">
         <v>1087.9830195227767</v>
@@ -8406,7 +8406,7 @@
         <v>9.76</v>
       </c>
       <c r="H176" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K176">
         <v>1</v>
@@ -8417,13 +8417,13 @@
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B177">
         <v>61.8948099136718</v>
       </c>
       <c r="C177" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D177">
         <v>1081.0892932330826</v>
@@ -8438,7 +8438,7 @@
         <v>9.76</v>
       </c>
       <c r="H177" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K177">
         <v>1</v>
@@ -8449,13 +8449,13 @@
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B178">
         <v>64.171362975121468</v>
       </c>
       <c r="C178" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D178">
         <v>989.26137198067636</v>
@@ -8470,7 +8470,7 @@
         <v>9.76</v>
       </c>
       <c r="H178" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K178">
         <v>1</v>
@@ -8481,13 +8481,13 @@
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B179">
         <v>46.528076748886562</v>
       </c>
       <c r="C179" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D179">
         <v>1015.2160251177394</v>
@@ -8502,7 +8502,7 @@
         <v>9.76</v>
       </c>
       <c r="H179" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K179">
         <v>1</v>
@@ -8513,13 +8513,13 @@
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B180">
         <v>53.073166800554347</v>
       </c>
       <c r="C180" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="D180">
         <v>1055.9329828571431</v>
@@ -8534,7 +8534,7 @@
         <v>9.76</v>
       </c>
       <c r="H180" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K180">
         <v>1</v>
@@ -8545,13 +8545,13 @@
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B181">
         <v>56.658737872337568</v>
       </c>
       <c r="C181" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D181">
         <v>1075.4890569948186</v>
@@ -8566,7 +8566,7 @@
         <v>9.76</v>
       </c>
       <c r="H181" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K181">
         <v>1</v>
@@ -8577,13 +8577,13 @@
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B182">
         <v>44.578101142921589</v>
       </c>
       <c r="C182" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D182">
         <v>1025.8286315789476</v>
@@ -8598,10 +8598,10 @@
         <v>9.76</v>
       </c>
       <c r="H182" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K182" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L182">
         <v>2022</v>
@@ -8609,13 +8609,13 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B183">
         <v>49.282399035120349</v>
       </c>
       <c r="C183" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D183">
         <v>1061.4367326315789</v>
@@ -8630,10 +8630,10 @@
         <v>9.76</v>
       </c>
       <c r="H183" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K183" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L183">
         <v>2022</v>
@@ -8641,13 +8641,13 @@
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B184">
         <v>55.191456143613912</v>
       </c>
       <c r="C184" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D184">
         <v>1155.647263716814</v>
@@ -8662,10 +8662,10 @@
         <v>9.76</v>
       </c>
       <c r="H184" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K184" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L184">
         <v>2022</v>
@@ -8673,13 +8673,13 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B185">
         <v>46.06970779166754</v>
       </c>
       <c r="C185" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D185">
         <v>940.36839198218263</v>
@@ -8694,10 +8694,10 @@
         <v>9.76</v>
       </c>
       <c r="H185" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K185" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L185">
         <v>2022</v>
@@ -8705,13 +8705,13 @@
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B186">
         <v>49.282399035120349</v>
       </c>
       <c r="C186" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D186">
         <v>997.5250640394089</v>
@@ -8726,10 +8726,10 @@
         <v>9.76</v>
       </c>
       <c r="H186" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K186" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L186">
         <v>2022</v>
@@ -8737,13 +8737,13 @@
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B187">
         <v>44.864948575372736</v>
       </c>
       <c r="C187" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D187">
         <v>987.51394082840238</v>
@@ -8758,10 +8758,10 @@
         <v>9.76</v>
       </c>
       <c r="H187" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K187" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L187">
         <v>2022</v>
@@ -8769,13 +8769,13 @@
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B188">
         <v>47.044989062001427</v>
       </c>
       <c r="C188" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D188">
         <v>1123.9063966597078</v>
@@ -8790,10 +8790,10 @@
         <v>9.76</v>
       </c>
       <c r="H188" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K188" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L188">
         <v>2022</v>
@@ -8801,13 +8801,13 @@
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B189">
         <v>48.421856737766916</v>
       </c>
       <c r="C189" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D189">
         <v>1037.0881478439426</v>
@@ -8822,10 +8822,10 @@
         <v>9.76</v>
       </c>
       <c r="H189" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K189" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L189">
         <v>2022</v>
@@ -8833,13 +8833,13 @@
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B190">
         <v>52.437720792082928</v>
       </c>
       <c r="C190" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="D190">
         <v>1146.695475409836</v>
@@ -8854,10 +8854,10 @@
         <v>9.76</v>
       </c>
       <c r="H190" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K190" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L190">
         <v>2022</v>
@@ -8865,13 +8865,13 @@
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B191">
         <v>44.463362169941135</v>
       </c>
       <c r="C191" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="D191">
         <v>916.48284142394834</v>
@@ -8886,10 +8886,10 @@
         <v>9.76</v>
       </c>
       <c r="H191" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K191" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L191">
         <v>2022</v>
@@ -8897,13 +8897,13 @@
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B192">
         <v>44.692840115902044</v>
       </c>
       <c r="C192" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D192">
         <v>840.84605381165932</v>
@@ -8918,10 +8918,10 @@
         <v>9.76</v>
       </c>
       <c r="H192" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K192" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L192">
         <v>2022</v>
@@ -8929,13 +8929,13 @@
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B193">
         <v>57.084649197791464</v>
       </c>
       <c r="C193" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D193">
         <v>1107.4378916666667</v>
@@ -8950,10 +8950,10 @@
         <v>9.76</v>
       </c>
       <c r="H193" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K193" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L193">
         <v>2022</v>
@@ -8961,13 +8961,13 @@
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B194">
         <v>62.390249073372637</v>
       </c>
       <c r="C194" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="D194">
         <v>1113.0771387900356</v>
@@ -8982,10 +8982,10 @@
         <v>9.76</v>
       </c>
       <c r="H194" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K194" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L194">
         <v>2022</v>
@@ -8993,13 +8993,13 @@
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B195">
         <v>68.837016116435791</v>
       </c>
       <c r="C195" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D195">
         <v>962.3940085106384</v>
@@ -9014,10 +9014,10 @@
         <v>9.76</v>
       </c>
       <c r="H195" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K195" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L195">
         <v>2022</v>
@@ -9025,13 +9025,13 @@
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B196">
         <v>69.422758022141835</v>
       </c>
       <c r="C196" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D196">
         <v>1052.4159999999999</v>
@@ -9046,10 +9046,10 @@
         <v>9.76</v>
       </c>
       <c r="H196" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K196" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L196">
         <v>2022</v>
@@ -9057,13 +9057,13 @@
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B197">
         <v>47.420043964179889</v>
       </c>
       <c r="C197" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D197">
         <v>1058.5433836276081</v>
@@ -9078,10 +9078,10 @@
         <v>9.76</v>
       </c>
       <c r="H197" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K197" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L197">
         <v>2022</v>
@@ -9089,13 +9089,13 @@
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B198">
         <v>57.052017639663859</v>
       </c>
       <c r="C198" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D198">
         <v>1034.104485549133</v>
@@ -9110,10 +9110,10 @@
         <v>9.76</v>
       </c>
       <c r="H198" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K198" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L198">
         <v>2022</v>
@@ -9121,13 +9121,13 @@
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B199">
         <v>64.149113917898333</v>
       </c>
       <c r="C199" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="D199">
         <v>1145.0054551181101</v>
@@ -9142,10 +9142,10 @@
         <v>9.76</v>
       </c>
       <c r="H199" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K199" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L199">
         <v>2022</v>
@@ -9153,13 +9153,13 @@
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B200">
         <v>57.873578510638161</v>
       </c>
       <c r="C200" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D200">
         <v>1082.2718937499999</v>
@@ -9174,10 +9174,10 @@
         <v>9.76</v>
       </c>
       <c r="H200" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K200" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L200">
         <v>2022</v>
@@ -9185,13 +9185,13 @@
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B201">
         <v>56.465122881014487</v>
       </c>
       <c r="C201" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D201">
         <v>1114.0231304347826</v>
@@ -9206,10 +9206,10 @@
         <v>9.76</v>
       </c>
       <c r="H201" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K201" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L201">
         <v>2022</v>
@@ -9217,13 +9217,13 @@
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B202">
         <v>62.976591992461472</v>
       </c>
       <c r="C202" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D202">
         <v>1087.2152553542007</v>
@@ -9238,10 +9238,10 @@
         <v>9.76</v>
       </c>
       <c r="H202" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K202" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L202">
         <v>2022</v>
@@ -9249,13 +9249,13 @@
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B203">
         <v>67.665368392282943</v>
       </c>
       <c r="C203" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="D203">
         <v>1065.0952779783395</v>
@@ -9270,10 +9270,10 @@
         <v>9.76</v>
       </c>
       <c r="H203" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K203" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L203">
         <v>2022</v>
@@ -9281,13 +9281,13 @@
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B204">
         <v>57.286760244601147</v>
       </c>
       <c r="C204" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D204">
         <v>1046.5995437262359</v>
@@ -9302,10 +9302,10 @@
         <v>9.76</v>
       </c>
       <c r="H204" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K204" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L204">
         <v>2022</v>
@@ -9313,13 +9313,13 @@
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B205">
         <v>61.803851516703574</v>
       </c>
       <c r="C205" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D205">
         <v>1163.7023428571429</v>
@@ -9334,10 +9334,10 @@
         <v>9.76</v>
       </c>
       <c r="H205" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K205" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L205">
         <v>2022</v>
@@ -9345,13 +9345,13 @@
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B206">
         <v>79.319999999999993</v>
       </c>
       <c r="C206" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D206">
         <v>286.08999999999997</v>
@@ -9366,7 +9366,7 @@
         <v>8.27</v>
       </c>
       <c r="H206" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="K206">
         <v>0</v>
@@ -9377,13 +9377,13 @@
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B207">
         <v>98.95</v>
       </c>
       <c r="C207" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D207">
         <v>269.99</v>
@@ -9398,7 +9398,7 @@
         <v>8.27</v>
       </c>
       <c r="H207" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="K207">
         <v>0</v>
@@ -9409,13 +9409,13 @@
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B208">
         <v>74.400000000000006</v>
       </c>
       <c r="C208" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D208">
         <v>341.09</v>
@@ -9430,7 +9430,7 @@
         <v>8.27</v>
       </c>
       <c r="H208" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="K208">
         <v>0</v>
@@ -9441,13 +9441,13 @@
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B209">
         <v>79.56</v>
       </c>
       <c r="C209" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D209">
         <v>231.19</v>
@@ -9462,7 +9462,7 @@
         <v>8.27</v>
       </c>
       <c r="H209" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="K209">
         <v>0</v>
@@ -9473,13 +9473,13 @@
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B210">
         <v>73.27</v>
       </c>
       <c r="C210" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D210">
         <v>243.29000000000002</v>
@@ -9494,7 +9494,7 @@
         <v>8.27</v>
       </c>
       <c r="H210" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="K210">
         <v>0</v>
@@ -9505,13 +9505,13 @@
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B211">
         <v>61.94</v>
       </c>
       <c r="C211" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D211">
         <v>234.58999999999997</v>
@@ -9526,7 +9526,7 @@
         <v>8.27</v>
       </c>
       <c r="H211" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="K211">
         <v>0</v>
@@ -9537,13 +9537,13 @@
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B212">
         <v>168.09</v>
       </c>
       <c r="C212" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D212">
         <v>400.49</v>
@@ -9558,7 +9558,7 @@
         <v>8.27</v>
       </c>
       <c r="H212" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="K212">
         <v>0</v>
@@ -9569,13 +9569,13 @@
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B213">
         <v>148.11000000000001</v>
       </c>
       <c r="C213" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D213">
         <v>462.29</v>
@@ -9590,7 +9590,7 @@
         <v>8.27</v>
       </c>
       <c r="H213" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="K213">
         <v>0</v>
@@ -9601,13 +9601,13 @@
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B214">
         <v>158.55000000000001</v>
       </c>
       <c r="C214" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D214">
         <v>454.79</v>
@@ -9622,7 +9622,7 @@
         <v>8.27</v>
       </c>
       <c r="H214" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="K214">
         <v>0</v>
@@ -9633,13 +9633,13 @@
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B215">
         <v>152.44</v>
       </c>
       <c r="C215" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D215">
         <v>463.19</v>
@@ -9654,7 +9654,7 @@
         <v>8.27</v>
       </c>
       <c r="H215" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="K215">
         <v>0</v>
@@ -9665,13 +9665,13 @@
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B216">
         <v>181.2</v>
       </c>
       <c r="C216" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D216">
         <v>342.69</v>
@@ -9686,7 +9686,7 @@
         <v>8.27</v>
       </c>
       <c r="H216" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="K216">
         <v>0</v>
@@ -9697,13 +9697,13 @@
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B217">
         <v>175.45</v>
       </c>
       <c r="C217" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D217">
         <v>399.69</v>
@@ -9718,7 +9718,7 @@
         <v>8.27</v>
       </c>
       <c r="H217" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="K217">
         <v>0</v>
@@ -9729,13 +9729,13 @@
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B218">
         <v>31.71</v>
       </c>
       <c r="C218" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D218">
         <v>1140.2198818897639</v>
@@ -9750,7 +9750,7 @@
         <v>8.27</v>
       </c>
       <c r="H218" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K218">
         <v>0</v>
@@ -9761,13 +9761,13 @@
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B219">
         <v>28.69</v>
       </c>
       <c r="C219" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D219">
         <v>1068.6649282296651</v>
@@ -9782,7 +9782,7 @@
         <v>8.27</v>
       </c>
       <c r="H219" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K219">
         <v>0</v>
@@ -9793,13 +9793,13 @@
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B220">
         <v>29.33</v>
       </c>
       <c r="C220" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D220">
         <v>1108.6253422619047</v>
@@ -9814,7 +9814,7 @@
         <v>8.27</v>
       </c>
       <c r="H220" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K220">
         <v>0</v>
@@ -9825,13 +9825,13 @@
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B221">
         <v>27.67</v>
       </c>
       <c r="C221" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D221">
         <v>902.00177101967802</v>
@@ -9846,7 +9846,7 @@
         <v>8.27</v>
       </c>
       <c r="H221" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K221">
         <v>0</v>
@@ -9857,13 +9857,13 @@
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B222">
         <v>29.38</v>
       </c>
       <c r="C222" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D222">
         <v>857.21593582887704</v>
@@ -9878,7 +9878,7 @@
         <v>8.27</v>
       </c>
       <c r="H222" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K222">
         <v>0</v>
@@ -9889,13 +9889,13 @@
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B223">
         <v>30.53</v>
       </c>
       <c r="C223" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D223">
         <v>938.66171270718235</v>
@@ -9910,7 +9910,7 @@
         <v>8.27</v>
       </c>
       <c r="H223" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K223">
         <v>0</v>
@@ -9921,13 +9921,13 @@
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B224">
         <v>64.55</v>
       </c>
       <c r="C224" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D224">
         <v>1573.4090447400245</v>
@@ -9942,7 +9942,7 @@
         <v>8.27</v>
       </c>
       <c r="H224" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K224">
         <v>0</v>
@@ -9953,13 +9953,13 @@
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B225">
         <v>62.54</v>
       </c>
       <c r="C225" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D225">
         <v>1487.2435656108596</v>
@@ -9974,7 +9974,7 @@
         <v>8.27</v>
       </c>
       <c r="H225" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K225">
         <v>0</v>
@@ -9985,13 +9985,13 @@
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B226">
         <v>60.88</v>
       </c>
       <c r="C226" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D226">
         <v>1518.9328908554573</v>
@@ -10006,7 +10006,7 @@
         <v>8.27</v>
       </c>
       <c r="H226" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K226">
         <v>0</v>
@@ -10017,13 +10017,13 @@
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B227">
         <v>58.15</v>
       </c>
       <c r="C227" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D227">
         <v>1481.3410071942446</v>
@@ -10038,7 +10038,7 @@
         <v>8.27</v>
       </c>
       <c r="H227" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K227">
         <v>0</v>
@@ -10049,13 +10049,13 @@
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B228">
         <v>60.64</v>
       </c>
       <c r="C228" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D228">
         <v>1439.934775280899</v>
@@ -10070,7 +10070,7 @@
         <v>8.27</v>
       </c>
       <c r="H228" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K228">
         <v>0</v>
@@ -10081,13 +10081,13 @@
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B229">
         <v>53.95</v>
       </c>
       <c r="C229" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D229">
         <v>1468.4612391930834</v>
@@ -10102,7 +10102,7 @@
         <v>8.27</v>
       </c>
       <c r="H229" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K229">
         <v>0</v>
@@ -10113,13 +10113,13 @@
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B230">
         <v>36.85</v>
       </c>
       <c r="C230" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D230">
         <v>1190.8224288425049</v>
@@ -10134,7 +10134,7 @@
         <v>8.27</v>
       </c>
       <c r="H230" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K230">
         <v>1</v>
@@ -10145,13 +10145,13 @@
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B231">
         <v>29.65</v>
       </c>
       <c r="C231" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D231">
         <v>1170.6916450216449</v>
@@ -10166,7 +10166,7 @@
         <v>8.27</v>
       </c>
       <c r="H231" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K231">
         <v>1</v>
@@ -10177,13 +10177,13 @@
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B232">
         <v>31.55</v>
       </c>
       <c r="C232" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D232">
         <v>1227.9297300771207</v>
@@ -10198,7 +10198,7 @@
         <v>8.27</v>
       </c>
       <c r="H232" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K232">
         <v>1</v>
@@ -10209,13 +10209,13 @@
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B233">
         <v>32.630000000000003</v>
       </c>
       <c r="C233" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D233">
         <v>1017.8425797503469</v>
@@ -10230,7 +10230,7 @@
         <v>8.27</v>
       </c>
       <c r="H233" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K233">
         <v>1</v>
@@ -10241,13 +10241,13 @@
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B234">
         <v>34.049999999999997</v>
       </c>
       <c r="C234" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D234">
         <v>1022.7513458528952</v>
@@ -10262,7 +10262,7 @@
         <v>8.27</v>
       </c>
       <c r="H234" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K234">
         <v>1</v>
@@ -10273,13 +10273,13 @@
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B235">
         <v>31.46</v>
       </c>
       <c r="C235" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D235">
         <v>1071.96</v>
@@ -10294,7 +10294,7 @@
         <v>8.27</v>
       </c>
       <c r="H235" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K235">
         <v>1</v>
@@ -10305,13 +10305,13 @@
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B236">
         <v>63.49</v>
       </c>
       <c r="C236" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D236">
         <v>1486.9487561214496</v>
@@ -10326,7 +10326,7 @@
         <v>8.27</v>
       </c>
       <c r="H236" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K236">
         <v>1</v>
@@ -10337,13 +10337,13 @@
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B237">
         <v>64.37</v>
       </c>
       <c r="C237" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D237">
         <v>1572.401959966639</v>
@@ -10358,7 +10358,7 @@
         <v>8.27</v>
       </c>
       <c r="H237" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K237">
         <v>1</v>
@@ -10369,13 +10369,13 @@
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B238">
         <v>60.58</v>
       </c>
       <c r="C238" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D238">
         <v>1480.4371790065604</v>
@@ -10390,7 +10390,7 @@
         <v>8.27</v>
       </c>
       <c r="H238" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K238">
         <v>1</v>
@@ -10401,13 +10401,13 @@
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B239">
         <v>62.42</v>
       </c>
       <c r="C239" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D239">
         <v>1342.9519043760129</v>
@@ -10422,7 +10422,7 @@
         <v>8.27</v>
       </c>
       <c r="H239" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K239">
         <v>1</v>
@@ -10433,13 +10433,13 @@
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B240">
         <v>66.75</v>
       </c>
       <c r="C240" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D240">
         <v>1465.8811287477954</v>
@@ -10454,7 +10454,7 @@
         <v>8.27</v>
       </c>
       <c r="H240" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K240">
         <v>1</v>
@@ -10465,13 +10465,13 @@
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B241">
         <v>60.05</v>
       </c>
       <c r="C241" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D241">
         <v>1396.7939693192714</v>
@@ -10486,7 +10486,7 @@
         <v>8.27</v>
       </c>
       <c r="H241" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K241">
         <v>1</v>
@@ -10497,13 +10497,13 @@
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B242">
         <v>56.97</v>
       </c>
       <c r="C242" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D242">
         <v>1234.4301538461539</v>
@@ -10518,10 +10518,10 @@
         <v>9.76</v>
       </c>
       <c r="H242" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K242" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L242">
         <v>2021</v>
@@ -10529,13 +10529,13 @@
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B243">
         <v>43.24</v>
       </c>
       <c r="C243" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D243">
         <v>1146.8460200668897</v>
@@ -10550,10 +10550,10 @@
         <v>9.76</v>
       </c>
       <c r="H243" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K243" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L243">
         <v>2021</v>
@@ -10561,13 +10561,13 @@
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B244">
         <v>58.32</v>
       </c>
       <c r="C244" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D244">
         <v>1283.6272373540858</v>
@@ -10582,10 +10582,10 @@
         <v>9.76</v>
       </c>
       <c r="H244" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K244" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L244">
         <v>2021</v>
@@ -10593,13 +10593,13 @@
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B245">
         <v>40.81</v>
       </c>
       <c r="C245" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D245">
         <v>620.04536423841057</v>
@@ -10614,7 +10614,7 @@
         <v>9.76</v>
       </c>
       <c r="H245" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K245">
         <v>0</v>
@@ -10625,13 +10625,13 @@
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B246">
         <v>50.23</v>
       </c>
       <c r="C246" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D246">
         <v>880.47212698412704</v>
@@ -10646,7 +10646,7 @@
         <v>9.76</v>
       </c>
       <c r="H246" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K246">
         <v>1</v>
@@ -10657,13 +10657,13 @@
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B247">
         <v>48.45</v>
       </c>
       <c r="C247" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D247">
         <v>1353.03</v>
@@ -10678,7 +10678,7 @@
         <v>9.76</v>
       </c>
       <c r="H247" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K247">
         <v>0</v>
@@ -10689,13 +10689,13 @@
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B248">
         <v>55.44</v>
       </c>
       <c r="C248" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D248">
         <v>1239.8623326959848</v>
@@ -10710,7 +10710,7 @@
         <v>9.76</v>
       </c>
       <c r="H248" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K248">
         <v>1</v>
@@ -10721,13 +10721,13 @@
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B249">
         <v>62.94</v>
       </c>
       <c r="C249" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D249">
         <v>1235.5090219560877</v>
@@ -10742,10 +10742,10 @@
         <v>9.76</v>
       </c>
       <c r="H249" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K249" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L249">
         <v>2021</v>
@@ -10753,13 +10753,13 @@
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B250">
         <v>62.6</v>
       </c>
       <c r="C250" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D250">
         <v>1194.5739146567716</v>
@@ -10774,10 +10774,10 @@
         <v>9.76</v>
       </c>
       <c r="H250" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K250" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L250">
         <v>2021</v>
@@ -10785,13 +10785,13 @@
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B251">
         <v>48.83</v>
       </c>
       <c r="C251" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D251">
         <v>1081.333810375671</v>
@@ -10806,10 +10806,10 @@
         <v>9.76</v>
       </c>
       <c r="H251" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K251" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L251">
         <v>2021</v>
@@ -10817,13 +10817,13 @@
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B252">
         <v>57.23</v>
       </c>
       <c r="C252" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D252">
         <v>1234.5027722772277</v>
@@ -10838,7 +10838,7 @@
         <v>9.76</v>
       </c>
       <c r="H252" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K252">
         <v>0</v>
@@ -10849,13 +10849,13 @@
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B253">
         <v>57.59</v>
       </c>
       <c r="C253" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D253">
         <v>1182.1796108949416</v>
@@ -10870,7 +10870,7 @@
         <v>9.76</v>
       </c>
       <c r="H253" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K253">
         <v>1</v>
@@ -10881,13 +10881,13 @@
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B254">
         <v>51.07</v>
       </c>
       <c r="C254" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D254">
         <v>1148.0606765327698</v>
@@ -10902,10 +10902,10 @@
         <v>9.76</v>
       </c>
       <c r="H254" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K254" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L254">
         <v>2021</v>
@@ -10913,13 +10913,13 @@
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B255">
         <v>56.51</v>
       </c>
       <c r="C255" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D255">
         <v>1109.133202357564</v>
@@ -10934,10 +10934,10 @@
         <v>9.76</v>
       </c>
       <c r="H255" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K255" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L255">
         <v>2021</v>
@@ -10945,13 +10945,13 @@
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B256">
         <v>39.54</v>
       </c>
       <c r="C256" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D256">
         <v>429.63592</v>
@@ -10966,7 +10966,7 @@
         <v>9.76</v>
       </c>
       <c r="H256" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K256">
         <v>0</v>
@@ -10977,13 +10977,13 @@
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B257">
         <v>41.33</v>
       </c>
       <c r="C257" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D257">
         <v>740.40284023668642</v>
@@ -10998,7 +10998,7 @@
         <v>9.76</v>
       </c>
       <c r="H257" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K257">
         <v>1</v>
@@ -11009,13 +11009,13 @@
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B258">
         <v>36.94</v>
       </c>
       <c r="C258" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D258">
         <v>656.88553846153843</v>
@@ -11030,7 +11030,7 @@
         <v>9.76</v>
       </c>
       <c r="H258" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K258">
         <v>0</v>
@@ -11041,13 +11041,13 @@
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B259">
         <v>38.369999999999997</v>
       </c>
       <c r="C259" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D259">
         <v>920.48936170212767</v>
@@ -11062,7 +11062,7 @@
         <v>9.76</v>
       </c>
       <c r="H259" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K259">
         <v>1</v>
@@ -11073,13 +11073,13 @@
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B260">
         <v>62.15</v>
       </c>
       <c r="C260" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D260">
         <v>1160.6144139650874</v>
@@ -11094,10 +11094,10 @@
         <v>9.76</v>
       </c>
       <c r="H260" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K260" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L260">
         <v>2021</v>
@@ -11105,13 +11105,13 @@
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B261">
         <v>51.38</v>
       </c>
       <c r="C261" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D261">
         <v>1197.2421052631578</v>
@@ -11126,10 +11126,10 @@
         <v>9.76</v>
       </c>
       <c r="H261" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K261" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L261">
         <v>2021</v>
@@ -11137,13 +11137,13 @@
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B262">
         <v>55.31</v>
       </c>
       <c r="C262" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D262">
         <v>1193.0538554216869</v>
@@ -11158,10 +11158,10 @@
         <v>9.76</v>
       </c>
       <c r="H262" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K262" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L262">
         <v>2021</v>
@@ -11169,13 +11169,13 @@
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B263">
         <v>47.29</v>
       </c>
       <c r="C263" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D263">
         <v>1180.8500392156861</v>
@@ -11190,7 +11190,7 @@
         <v>9.76</v>
       </c>
       <c r="H263" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K263">
         <v>0</v>
@@ -11201,13 +11201,13 @@
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B264">
         <v>57.3</v>
       </c>
       <c r="C264" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D264">
         <v>1283.8079527559055</v>
@@ -11222,7 +11222,7 @@
         <v>9.76</v>
       </c>
       <c r="H264" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K264">
         <v>1</v>
@@ -11233,13 +11233,13 @@
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B265">
         <v>53.59</v>
       </c>
       <c r="C265" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D265">
         <v>1237.4470588235297</v>
@@ -11254,10 +11254,10 @@
         <v>9.76</v>
       </c>
       <c r="H265" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K265" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L265">
         <v>2021</v>
@@ -11265,13 +11265,13 @@
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B266">
         <v>71.349999999999994</v>
       </c>
       <c r="C266" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D266">
         <v>1031.0252427184466</v>
@@ -11286,10 +11286,10 @@
         <v>9.76</v>
       </c>
       <c r="H266" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K266" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L266">
         <v>2021</v>
@@ -11297,13 +11297,13 @@
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B267">
         <v>55.56</v>
       </c>
       <c r="C267" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D267">
         <v>1168.911712158809</v>
@@ -11318,10 +11318,10 @@
         <v>9.76</v>
       </c>
       <c r="H267" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K267" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L267">
         <v>2021</v>
@@ -11329,13 +11329,13 @@
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B268">
         <v>62.43</v>
       </c>
       <c r="C268" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D268">
         <v>1083.2971069182393</v>
@@ -11350,10 +11350,10 @@
         <v>9.76</v>
       </c>
       <c r="H268" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K268" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L268">
         <v>2021</v>
@@ -11361,13 +11361,13 @@
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B269">
         <v>54.02</v>
       </c>
       <c r="C269" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D269">
         <v>1162.2670539419087</v>
@@ -11382,7 +11382,7 @@
         <v>9.76</v>
       </c>
       <c r="H269" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K269">
         <v>0</v>
@@ -11393,13 +11393,13 @@
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B270">
         <v>68.81</v>
       </c>
       <c r="C270" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D270">
         <v>1018.2596498054476</v>
@@ -11414,7 +11414,7 @@
         <v>9.76</v>
       </c>
       <c r="H270" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K270">
         <v>1</v>
@@ -11425,13 +11425,13 @@
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B271">
         <v>40.299999999999997</v>
       </c>
       <c r="C271" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D271">
         <v>1041.299247135843</v>
@@ -11446,10 +11446,10 @@
         <v>9.76</v>
       </c>
       <c r="H271" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K271" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L271">
         <v>2021</v>
@@ -11457,13 +11457,13 @@
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B272">
         <v>37.119999999999997</v>
       </c>
       <c r="C272" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D272">
         <v>532.83553113553114</v>
@@ -11478,7 +11478,7 @@
         <v>9.76</v>
       </c>
       <c r="H272" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K272">
         <v>0</v>
@@ -11489,13 +11489,13 @@
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B273">
         <v>33.590000000000003</v>
       </c>
       <c r="C273" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D273">
         <v>764.25088757396441</v>
@@ -11510,7 +11510,7 @@
         <v>9.76</v>
       </c>
       <c r="H273" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K273">
         <v>1</v>
@@ -11521,13 +11521,13 @@
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B274">
         <v>47.74</v>
       </c>
       <c r="C274" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D274">
         <v>1283.8295730337079</v>
@@ -11542,7 +11542,7 @@
         <v>9.76</v>
       </c>
       <c r="H274" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K274">
         <v>0</v>
@@ -11553,13 +11553,13 @@
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B275">
         <v>44.2</v>
       </c>
       <c r="C275" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D275">
         <v>1209.890071942446</v>
@@ -11574,7 +11574,7 @@
         <v>9.76</v>
       </c>
       <c r="H275" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K275">
         <v>1</v>
@@ -11585,13 +11585,13 @@
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B276">
         <v>57.05</v>
       </c>
       <c r="C276" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D276">
         <v>1212.7443400447428</v>
@@ -11606,10 +11606,10 @@
         <v>9.76</v>
       </c>
       <c r="H276" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K276" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L276">
         <v>2021</v>
@@ -11617,13 +11617,13 @@
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B277">
         <v>67.400000000000006</v>
       </c>
       <c r="C277" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D277">
         <v>1108.2069795918369</v>
@@ -11638,10 +11638,10 @@
         <v>9.76</v>
       </c>
       <c r="H277" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K277" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L277">
         <v>2021</v>
@@ -11649,13 +11649,13 @@
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B278">
         <v>36.06</v>
       </c>
       <c r="C278" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D278">
         <v>686.2294117647059</v>
@@ -11670,7 +11670,7 @@
         <v>9.76</v>
       </c>
       <c r="H278" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K278">
         <v>0</v>
@@ -11681,13 +11681,13 @@
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B279">
         <v>36.340000000000003</v>
       </c>
       <c r="C279" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D279">
         <v>926.97331550802153</v>
@@ -11702,7 +11702,7 @@
         <v>9.76</v>
       </c>
       <c r="H279" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K279">
         <v>1</v>
@@ -11713,13 +11713,13 @@
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B280">
         <v>51.11</v>
       </c>
       <c r="C280" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D280">
         <v>1188.4489473684209</v>
@@ -11734,10 +11734,10 @@
         <v>9.76</v>
       </c>
       <c r="H280" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K280" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L280">
         <v>2021</v>
@@ -11745,13 +11745,13 @@
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B281">
         <v>41.94</v>
       </c>
       <c r="C281" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D281">
         <v>1097.7433272394881</v>
@@ -11766,10 +11766,10 @@
         <v>9.76</v>
       </c>
       <c r="H281" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K281" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L281">
         <v>2021</v>
@@ -11777,13 +11777,13 @@
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B282">
         <v>56.17</v>
       </c>
       <c r="C282" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D282">
         <v>1151.5787112171836</v>
@@ -11798,10 +11798,10 @@
         <v>9.76</v>
       </c>
       <c r="H282" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K282" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L282">
         <v>2021</v>
@@ -11809,13 +11809,13 @@
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B283">
         <v>51.74</v>
       </c>
       <c r="C283" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D283">
         <v>1137.4248828125001</v>
@@ -11830,10 +11830,10 @@
         <v>9.76</v>
       </c>
       <c r="H283" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K283" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L283">
         <v>2021</v>
@@ -11841,13 +11841,13 @@
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B284">
         <v>45.86</v>
       </c>
       <c r="C284" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D284">
         <v>1161.1421188630493</v>
@@ -11862,7 +11862,7 @@
         <v>9.76</v>
       </c>
       <c r="H284" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K284">
         <v>0</v>
@@ -11873,13 +11873,13 @@
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B285">
         <v>47.07</v>
       </c>
       <c r="C285" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D285">
         <v>1209.4677777777779</v>
@@ -11894,7 +11894,7 @@
         <v>9.76</v>
       </c>
       <c r="H285" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K285">
         <v>1</v>
@@ -11905,13 +11905,13 @@
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B286">
         <v>39.44</v>
       </c>
       <c r="C286" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D286">
         <v>410.10494845360824</v>
@@ -11926,7 +11926,7 @@
         <v>9.76</v>
       </c>
       <c r="H286" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K286">
         <v>0</v>
@@ -11937,13 +11937,13 @@
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B287">
         <v>41.82</v>
       </c>
       <c r="C287" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D287">
         <v>611.0799130434782</v>
@@ -11958,7 +11958,7 @@
         <v>9.76</v>
       </c>
       <c r="H287" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K287">
         <v>1</v>
@@ -11969,13 +11969,13 @@
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B288">
         <v>44.4</v>
       </c>
       <c r="C288" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D288">
         <v>1009.5532258064517</v>
@@ -11990,10 +11990,10 @@
         <v>9.76</v>
       </c>
       <c r="H288" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K288" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L288">
         <v>2021</v>
@@ -12001,13 +12001,13 @@
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B289">
         <v>51.36</v>
       </c>
       <c r="C289" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D289">
         <v>1154.6745000000001</v>
@@ -12022,10 +12022,10 @@
         <v>9.76</v>
       </c>
       <c r="H289" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K289" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L289">
         <v>2021</v>
@@ -12033,13 +12033,13 @@
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B290">
         <v>67.959999999999994</v>
       </c>
       <c r="C290" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D290">
         <v>1257.1944615384616</v>
@@ -12054,10 +12054,10 @@
         <v>8.27</v>
       </c>
       <c r="H290" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K290" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L290">
         <v>2021</v>
@@ -12065,13 +12065,13 @@
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B291">
         <v>37.24</v>
       </c>
       <c r="C291" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D291">
         <v>1047.2690301003345</v>
@@ -12086,10 +12086,10 @@
         <v>8.27</v>
       </c>
       <c r="H291" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K291" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L291">
         <v>2021</v>
@@ -12097,13 +12097,13 @@
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B292">
         <v>38.46</v>
       </c>
       <c r="C292" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D292">
         <v>1080.578988326848</v>
@@ -12118,10 +12118,10 @@
         <v>8.27</v>
       </c>
       <c r="H292" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K292" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L292">
         <v>2021</v>
@@ -12129,13 +12129,13 @@
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B293">
         <v>34.049999999999997</v>
       </c>
       <c r="C293" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D293">
         <v>706.99768211920525</v>
@@ -12150,7 +12150,7 @@
         <v>8.27</v>
       </c>
       <c r="H293" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K293">
         <v>0</v>
@@ -12161,13 +12161,13 @@
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B294">
         <v>32.340000000000003</v>
       </c>
       <c r="C294" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D294">
         <v>805.49612698412705</v>
@@ -12182,7 +12182,7 @@
         <v>8.27</v>
       </c>
       <c r="H294" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K294">
         <v>1</v>
@@ -12193,13 +12193,13 @@
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B295">
         <v>47.94</v>
       </c>
       <c r="C295" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D295">
         <v>1254.345</v>
@@ -12214,7 +12214,7 @@
         <v>8.27</v>
       </c>
       <c r="H295" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K295">
         <v>0</v>
@@ -12225,13 +12225,13 @@
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B296">
         <v>55.22</v>
       </c>
       <c r="C296" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D296">
         <v>1157.1395793499046</v>
@@ -12246,7 +12246,7 @@
         <v>8.27</v>
       </c>
       <c r="H296" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K296">
         <v>1</v>
@@ -12257,13 +12257,13 @@
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B297">
         <v>51.71</v>
       </c>
       <c r="C297" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D297">
         <v>1241.9720159680635</v>
@@ -12278,10 +12278,10 @@
         <v>8.27</v>
       </c>
       <c r="H297" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K297" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L297">
         <v>2021</v>
@@ -12289,13 +12289,13 @@
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B298">
         <v>46.56</v>
       </c>
       <c r="C298" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D298">
         <v>1147.3889795918369</v>
@@ -12310,10 +12310,10 @@
         <v>8.27</v>
       </c>
       <c r="H298" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K298" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L298">
         <v>2021</v>
@@ -12321,13 +12321,13 @@
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B299">
         <v>36.340000000000003</v>
       </c>
       <c r="C299" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D299">
         <v>884.84543828264759</v>
@@ -12342,10 +12342,10 @@
         <v>8.27</v>
       </c>
       <c r="H299" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K299" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L299">
         <v>2021</v>
@@ -12353,13 +12353,13 @@
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B300">
         <v>41.25</v>
       </c>
       <c r="C300" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D300">
         <v>1002.6586138613865</v>
@@ -12374,7 +12374,7 @@
         <v>8.27</v>
       </c>
       <c r="H300" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K300">
         <v>0</v>
@@ -12385,13 +12385,13 @@
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B301">
         <v>45.57</v>
       </c>
       <c r="C301" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D301">
         <v>1105.6460700389107</v>
@@ -12406,7 +12406,7 @@
         <v>8.27</v>
       </c>
       <c r="H301" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K301">
         <v>1</v>
@@ -12417,13 +12417,13 @@
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B302">
         <v>36.31</v>
       </c>
       <c r="C302" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D302">
         <v>997.27949260042294</v>
@@ -12438,10 +12438,10 @@
         <v>8.27</v>
       </c>
       <c r="H302" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K302" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L302">
         <v>2021</v>
@@ -12449,13 +12449,13 @@
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B303">
         <v>54.68</v>
       </c>
       <c r="C303" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D303">
         <v>1088.257760314342</v>
@@ -12470,10 +12470,10 @@
         <v>8.27</v>
       </c>
       <c r="H303" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K303" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L303">
         <v>2021</v>
@@ -12481,13 +12481,13 @@
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B304">
         <v>32.89</v>
       </c>
       <c r="C304" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D304">
         <v>546.48608000000002</v>
@@ -12502,7 +12502,7 @@
         <v>8.27</v>
       </c>
       <c r="H304" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K304">
         <v>0</v>
@@ -12513,13 +12513,13 @@
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B305">
         <v>30.29</v>
       </c>
       <c r="C305" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D305">
         <v>709.8220118343196</v>
@@ -12534,7 +12534,7 @@
         <v>8.27</v>
       </c>
       <c r="H305" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K305">
         <v>1</v>
@@ -12545,13 +12545,13 @@
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B306">
         <v>30.12</v>
       </c>
       <c r="C306" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D306">
         <v>645.83046153846135</v>
@@ -12566,7 +12566,7 @@
         <v>8.27</v>
       </c>
       <c r="H306" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K306">
         <v>0</v>
@@ -12577,13 +12577,13 @@
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B307">
         <v>31.29</v>
       </c>
       <c r="C307" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D307">
         <v>730.64964539007099</v>
@@ -12598,7 +12598,7 @@
         <v>8.27</v>
       </c>
       <c r="H307" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K307">
         <v>1</v>
@@ -12609,13 +12609,13 @@
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B308">
         <v>55.65</v>
       </c>
       <c r="C308" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D308">
         <v>1069.6284788029923</v>
@@ -12630,10 +12630,10 @@
         <v>8.27</v>
       </c>
       <c r="H308" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K308" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L308">
         <v>2021</v>
@@ -12641,13 +12641,13 @@
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B309">
         <v>36.36</v>
       </c>
       <c r="C309" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D309">
         <v>941.74736842105244</v>
@@ -12662,10 +12662,10 @@
         <v>8.27</v>
       </c>
       <c r="H309" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K309" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L309">
         <v>2021</v>
@@ -12673,13 +12673,13 @@
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B310">
         <v>49.72</v>
       </c>
       <c r="C310" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D310">
         <v>1153.4931325301206</v>
@@ -12694,10 +12694,10 @@
         <v>8.27</v>
       </c>
       <c r="H310" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K310" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L310">
         <v>2021</v>
@@ -12705,13 +12705,13 @@
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B311">
         <v>48.29</v>
       </c>
       <c r="C311" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D311">
         <v>1132.8319215686276</v>
@@ -12726,7 +12726,7 @@
         <v>8.27</v>
       </c>
       <c r="H311" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K311">
         <v>0</v>
@@ -12737,13 +12737,13 @@
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B312">
         <v>49.66</v>
       </c>
       <c r="C312" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D312">
         <v>1207.5077952755908</v>
@@ -12758,7 +12758,7 @@
         <v>8.27</v>
       </c>
       <c r="H312" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K312">
         <v>1</v>
@@ -12769,13 +12769,13 @@
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B313">
         <v>40.99</v>
       </c>
       <c r="C313" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D313">
         <v>1049.2638655462183</v>
@@ -12790,10 +12790,10 @@
         <v>8.27</v>
       </c>
       <c r="H313" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K313" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L313">
         <v>2021</v>
@@ -12801,13 +12801,13 @@
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B314">
         <v>71.8</v>
       </c>
       <c r="C314" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D314">
         <v>1228.698058252427</v>
@@ -12822,10 +12822,10 @@
         <v>8.27</v>
       </c>
       <c r="H314" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K314" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L314">
         <v>2021</v>
@@ -12833,13 +12833,13 @@
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B315">
         <v>37.19</v>
       </c>
       <c r="C315" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D315">
         <v>1035.3885359801486</v>
@@ -12854,10 +12854,10 @@
         <v>8.27</v>
       </c>
       <c r="H315" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K315" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L315">
         <v>2021</v>
@@ -12865,13 +12865,13 @@
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B316">
         <v>54.89</v>
       </c>
       <c r="C316" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D316">
         <v>1068.6012159329141</v>
@@ -12886,10 +12886,10 @@
         <v>8.27</v>
       </c>
       <c r="H316" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K316" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L316">
         <v>2021</v>
@@ -12897,13 +12897,13 @@
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B317">
         <v>47.87</v>
       </c>
       <c r="C317" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D317">
         <v>1152.3902074688797</v>
@@ -12918,7 +12918,7 @@
         <v>8.27</v>
       </c>
       <c r="H317" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K317">
         <v>0</v>
@@ -12929,13 +12929,13 @@
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B318">
         <v>58.21</v>
       </c>
       <c r="C318" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D318">
         <v>1175.748326848249</v>
@@ -12950,7 +12950,7 @@
         <v>8.27</v>
       </c>
       <c r="H318" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K318">
         <v>1</v>
@@ -12961,13 +12961,13 @@
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B319">
         <v>41.51</v>
       </c>
       <c r="C319" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D319">
         <v>949.16425531914888</v>
@@ -12982,10 +12982,10 @@
         <v>8.27</v>
       </c>
       <c r="H319" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K319" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L319">
         <v>2021</v>
@@ -12993,13 +12993,13 @@
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B320">
         <v>29.97</v>
       </c>
       <c r="C320" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D320">
         <v>549.51978021978016</v>
@@ -13014,7 +13014,7 @@
         <v>8.27</v>
       </c>
       <c r="H320" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K320">
         <v>0</v>
@@ -13025,13 +13025,13 @@
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B321">
         <v>32.11</v>
       </c>
       <c r="C321" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D321">
         <v>704.20828402366851</v>
@@ -13046,7 +13046,7 @@
         <v>8.27</v>
       </c>
       <c r="H321" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K321">
         <v>1</v>
@@ -13057,13 +13057,13 @@
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B322">
         <v>41.26</v>
       </c>
       <c r="C322" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D322">
         <v>1071.9996404494382</v>
@@ -13078,7 +13078,7 @@
         <v>8.27</v>
       </c>
       <c r="H322" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K322">
         <v>0</v>
@@ -13089,13 +13089,13 @@
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B323">
         <v>46.92</v>
       </c>
       <c r="C323" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D323">
         <v>1116.0034532374102</v>
@@ -13110,7 +13110,7 @@
         <v>8.27</v>
       </c>
       <c r="H323" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K323">
         <v>1</v>
@@ -13121,13 +13121,13 @@
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B324">
         <v>45.73</v>
       </c>
       <c r="C324" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D324">
         <v>1089.0265771812083</v>
@@ -13142,10 +13142,10 @@
         <v>8.27</v>
       </c>
       <c r="H324" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K324" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L324">
         <v>2021</v>
@@ -13153,13 +13153,13 @@
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B325">
         <v>65.760000000000005</v>
       </c>
       <c r="C325" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D325">
         <v>1146.3040408163265</v>
@@ -13174,10 +13174,10 @@
         <v>8.27</v>
       </c>
       <c r="H325" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K325" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L325">
         <v>2021</v>
@@ -13185,13 +13185,13 @@
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B326">
         <v>32.299999999999997</v>
       </c>
       <c r="C326" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D326">
         <v>744.57450980392173</v>
@@ -13206,7 +13206,7 @@
         <v>8.27</v>
       </c>
       <c r="H326" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K326">
         <v>0</v>
@@ -13217,13 +13217,13 @@
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B327">
         <v>32.81</v>
       </c>
       <c r="C327" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D327">
         <v>808.18069518716595</v>
@@ -13238,7 +13238,7 @@
         <v>8.27</v>
       </c>
       <c r="H327" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K327">
         <v>1</v>
@@ -13249,13 +13249,13 @@
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B328">
         <v>41.04</v>
       </c>
       <c r="C328" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D328">
         <v>1161.3221052631582</v>
@@ -13270,10 +13270,10 @@
         <v>8.27</v>
       </c>
       <c r="H328" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K328" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L328">
         <v>2021</v>
@@ -13281,13 +13281,13 @@
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B329">
         <v>38.909999999999997</v>
       </c>
       <c r="C329" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D329">
         <v>1034.2557586837295</v>
@@ -13302,10 +13302,10 @@
         <v>8.27</v>
       </c>
       <c r="H329" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K329" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L329">
         <v>2021</v>
@@ -13313,13 +13313,13 @@
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B330">
         <v>45.25</v>
       </c>
       <c r="C330" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D330">
         <v>1075.2883532219569</v>
@@ -13334,10 +13334,10 @@
         <v>8.27</v>
       </c>
       <c r="H330" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K330" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L330">
         <v>2021</v>
@@ -13345,13 +13345,13 @@
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B331">
         <v>58.77</v>
       </c>
       <c r="C331" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D331">
         <v>1208.6856640625003</v>
@@ -13366,10 +13366,10 @@
         <v>8.27</v>
       </c>
       <c r="H331" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K331" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L331">
         <v>2021</v>
@@ -13377,13 +13377,13 @@
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B332">
         <v>33.53</v>
       </c>
       <c r="C332" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D332">
         <v>1070.4211886304906</v>
@@ -13398,7 +13398,7 @@
         <v>8.27</v>
       </c>
       <c r="H332" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K332">
         <v>0</v>
@@ -13409,13 +13409,13 @@
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B333">
         <v>41.48</v>
       </c>
       <c r="C333" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D333">
         <v>1063.762777777778</v>
@@ -13430,7 +13430,7 @@
         <v>8.27</v>
       </c>
       <c r="H333" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K333">
         <v>1</v>
@@ -13441,13 +13441,13 @@
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B334">
         <v>29.5</v>
       </c>
       <c r="C334" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D334">
         <v>533.12804123711351</v>
@@ -13462,7 +13462,7 @@
         <v>8.27</v>
       </c>
       <c r="H334" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K334">
         <v>0</v>
@@ -13473,13 +13473,13 @@
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B335">
         <v>29.24</v>
       </c>
       <c r="C335" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D335">
         <v>667.83226086956518</v>
@@ -13494,7 +13494,7 @@
         <v>8.27</v>
       </c>
       <c r="H335" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K335">
         <v>1</v>
@@ -13505,13 +13505,13 @@
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B336">
         <v>36.74</v>
       </c>
       <c r="C336" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="D336">
         <v>949.01129032258086</v>
@@ -13526,10 +13526,10 @@
         <v>8.27</v>
       </c>
       <c r="H336" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K336" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L336">
         <v>2021</v>
@@ -13537,13 +13537,13 @@
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B337">
         <v>37.72</v>
       </c>
       <c r="C337" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D337">
         <v>1051.1567499999996</v>
@@ -13558,10 +13558,10 @@
         <v>8.27</v>
       </c>
       <c r="H337" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K337" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L337">
         <v>2021</v>
